--- a/data/hotels_by_city/Houston/Houston_shard_664.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_664.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="409">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55643-d225736-Reviews-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
   </si>
   <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Lake-Jackson-Hotels-TownePlace-Suites-By-Marriott-Lake-Jackson-Clute.h695364.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1123 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r592234148-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>55643</t>
+  </si>
+  <si>
+    <t>225736</t>
+  </si>
+  <si>
+    <t>592234148</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>Time to Relax</t>
+  </si>
+  <si>
+    <t>We absolutely Loved our Stay️From the Outside to the Inside the Place is absoutely, clean, Organized, comfortable a home away from home, all you have to worry about is to relax , sleep, eat and go to the Beach about a 10 minute drive, Management and staff are 1st class,Breakfast awesome, all good energy when you walk in, everything is close by, cant say enough good things about out stay, we will be back soon, we drove from Dallas a 5 hour drive, and to avoid the chaos of the city for 4 days was a Blessing️thank you for your Hospitality️MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Barbara E, General Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded July 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2018</t>
+  </si>
+  <si>
+    <t>We absolutely Loved our Stay️From the Outside to the Inside the Place is absoutely, clean, Organized, comfortable a home away from home, all you have to worry about is to relax , sleep, eat and go to the Beach about a 10 minute drive, Management and staff are 1st class,Breakfast awesome, all good energy when you walk in, everything is close by, cant say enough good things about out stay, we will be back soon, we drove from Dallas a 5 hour drive, and to avoid the chaos of the city for 4 days was a Blessing️thank you for your Hospitality️More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r582428274-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>582428274</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breakdown </t>
+  </si>
+  <si>
+    <t>Truck brokedown, waiting on parts to come in. The company got me s room here. Everything was excellent. It was only me but the room had two beds and a sleeper sofa. It had a kitchen with full size fridge, microwave, cooktop, and dishwasher. Table and chairs. A small  apartment in other words. Very comfortable beds. Offer breakfast in the morning. Friendly courteous staff. Enjoyed the stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Barbara E, General Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded May 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2018</t>
+  </si>
+  <si>
+    <t>Truck brokedown, waiting on parts to come in. The company got me s room here. Everything was excellent. It was only me but the room had two beds and a sleeper sofa. It had a kitchen with full size fridge, microwave, cooktop, and dishwasher. Table and chairs. A small  apartment in other words. Very comfortable beds. Offer breakfast in the morning. Friendly courteous staff. Enjoyed the stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r578806805-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>578806805</t>
+  </si>
+  <si>
+    <t>05/08/2018</t>
+  </si>
+  <si>
+    <t>No Room at The Inn</t>
+  </si>
+  <si>
+    <t>The Staff was extremely nice.  However, the hotel overbooked and did not have a room for my co-worker even though the room was confirmed on the Marriott app.  We moved to a different hotel.  Very disappointed and will no longer stay at this hotel.  There is a Hampton Inn next door which I will use.  DisappointedMoreShow less</t>
+  </si>
+  <si>
+    <t>Barbara E, General Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded May 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2018</t>
+  </si>
+  <si>
+    <t>The Staff was extremely nice.  However, the hotel overbooked and did not have a room for my co-worker even though the room was confirmed on the Marriott app.  We moved to a different hotel.  Very disappointed and will no longer stay at this hotel.  There is a Hampton Inn next door which I will use.  DisappointedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r536273415-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>536273415</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>Very stressful stay with poor management</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for about 6 weeks for a traveling job. Overall, it was a very stressful 6 weeks. We enjoyed the first suite we were put in. It was large and had a separate bedroom and big living room. Right in the middle of our stay, we evacuated for Hurricane Harvey. We didn't know when it would be safe to return so we tried staying in contact with the hotel to ensure we didn't lose our room. Well, we did. When we got back we went from the huge suite to a TEENY, TINY studio. It was TINY. We also lost our extended stay rate because of this so we were paying $50+ more dollars a night for a room literally HALF the size. They couldn't get us into a suite again for over a week and when they did it was the older, not remodeled version. There were lots of bugs and the rooms smelled very weird. The parking lot and general area was incredibly sketchy, I was worried about my car and never felt comfortable leaving after dark. People loiter outside of the front entrance, drinking and smoking ON THE DAILY. We've been living out of hotels for several months now and this one was not impressive at all. The housekeeping was excellent, however. They left a note every day indicating whether they cleaned or did not (if the do not disturb tag was on...We stayed at this hotel for about 6 weeks for a traveling job. Overall, it was a very stressful 6 weeks. We enjoyed the first suite we were put in. It was large and had a separate bedroom and big living room. Right in the middle of our stay, we evacuated for Hurricane Harvey. We didn't know when it would be safe to return so we tried staying in contact with the hotel to ensure we didn't lose our room. Well, we did. When we got back we went from the huge suite to a TEENY, TINY studio. It was TINY. We also lost our extended stay rate because of this so we were paying $50+ more dollars a night for a room literally HALF the size. They couldn't get us into a suite again for over a week and when they did it was the older, not remodeled version. There were lots of bugs and the rooms smelled very weird. The parking lot and general area was incredibly sketchy, I was worried about my car and never felt comfortable leaving after dark. People loiter outside of the front entrance, drinking and smoking ON THE DAILY. We've been living out of hotels for several months now and this one was not impressive at all. The housekeeping was excellent, however. They left a note every day indicating whether they cleaned or did not (if the do not disturb tag was on the door) and were very meticulous in their work.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Barbara E, General Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded October 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for about 6 weeks for a traveling job. Overall, it was a very stressful 6 weeks. We enjoyed the first suite we were put in. It was large and had a separate bedroom and big living room. Right in the middle of our stay, we evacuated for Hurricane Harvey. We didn't know when it would be safe to return so we tried staying in contact with the hotel to ensure we didn't lose our room. Well, we did. When we got back we went from the huge suite to a TEENY, TINY studio. It was TINY. We also lost our extended stay rate because of this so we were paying $50+ more dollars a night for a room literally HALF the size. They couldn't get us into a suite again for over a week and when they did it was the older, not remodeled version. There were lots of bugs and the rooms smelled very weird. The parking lot and general area was incredibly sketchy, I was worried about my car and never felt comfortable leaving after dark. People loiter outside of the front entrance, drinking and smoking ON THE DAILY. We've been living out of hotels for several months now and this one was not impressive at all. The housekeeping was excellent, however. They left a note every day indicating whether they cleaned or did not (if the do not disturb tag was on...We stayed at this hotel for about 6 weeks for a traveling job. Overall, it was a very stressful 6 weeks. We enjoyed the first suite we were put in. It was large and had a separate bedroom and big living room. Right in the middle of our stay, we evacuated for Hurricane Harvey. We didn't know when it would be safe to return so we tried staying in contact with the hotel to ensure we didn't lose our room. Well, we did. When we got back we went from the huge suite to a TEENY, TINY studio. It was TINY. We also lost our extended stay rate because of this so we were paying $50+ more dollars a night for a room literally HALF the size. They couldn't get us into a suite again for over a week and when they did it was the older, not remodeled version. There were lots of bugs and the rooms smelled very weird. The parking lot and general area was incredibly sketchy, I was worried about my car and never felt comfortable leaving after dark. People loiter outside of the front entrance, drinking and smoking ON THE DAILY. We've been living out of hotels for several months now and this one was not impressive at all. The housekeeping was excellent, however. They left a note every day indicating whether they cleaned or did not (if the do not disturb tag was on the door) and were very meticulous in their work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r504543615-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>504543615</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in June 2017 for business along with 4 other co-workers.  Everyone enjoyed their stay. Nice free breakfast. Staff is super nice and very helpful. Will stay here again when in town for business. Rooms were clean and housekeeping was accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Barbara E, General Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in June 2017 for business along with 4 other co-workers.  Everyone enjoyed their stay. Nice free breakfast. Staff is super nice and very helpful. Will stay here again when in town for business. Rooms were clean and housekeeping was accommodating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r496347898-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>496347898</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>aweful</t>
+  </si>
+  <si>
+    <t>rooms are horrible. there lots of mold in the bathroom and not very clean. rooms are also very small and a/c smells. the position of the tv is very odd, its to the left of the bed and i couldnt find a great view to watch even from the furniture, hurts my neck. felt like staying in a trailer. me and my company wont be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Barbara E, General Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>rooms are horrible. there lots of mold in the bathroom and not very clean. rooms are also very small and a/c smells. the position of the tv is very odd, its to the left of the bed and i couldnt find a great view to watch even from the furniture, hurts my neck. felt like staying in a trailer. me and my company wont be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r478527301-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>478527301</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over charge </t>
+  </si>
+  <si>
+    <t>We had a pleasure at this hotel the bad experience was I pay cash for the night and the receptionist Ashley ask for a credit card because she told me it was a requirement for reservation, but she charged $100 dollars from my card,she never told me about that charge,when I notice I call and Ashley answer my call,she told me my money it's going back to my count,but why she didn't explain she will do that..MoreShow less</t>
+  </si>
+  <si>
+    <t>Barbara E, General Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded April 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2017</t>
+  </si>
+  <si>
+    <t>We had a pleasure at this hotel the bad experience was I pay cash for the night and the receptionist Ashley ask for a credit card because she told me it was a requirement for reservation, but she charged $100 dollars from my card,she never told me about that charge,when I notice I call and Ashley answer my call,she told me my money it's going back to my count,but why she didn't explain she will do that..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r477802829-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>477802829</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t>Very Nice for my extended stay</t>
+  </si>
+  <si>
+    <t>Very nice staff. Made my stay away from home very nice while I was here and working. Highly recommend. They made my stay very nice. All staff went above and beyond. Construction was on going but it was well managed. And im sure the construction will be done soon. Very nice accomodations. Staff made it even better. Glad to be going back home, but I will miss the staff. Highly recommend.  If you have any questions, i'll be glad to answer. Special thanks to Barbara. Keep up the good work!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Ashley B, Operations Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded April 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2017</t>
+  </si>
+  <si>
+    <t>Very nice staff. Made my stay away from home very nice while I was here and working. Highly recommend. They made my stay very nice. All staff went above and beyond. Construction was on going but it was well managed. And im sure the construction will be done soon. Very nice accomodations. Staff made it even better. Glad to be going back home, but I will miss the staff. Highly recommend.  If you have any questions, i'll be glad to answer. Special thanks to Barbara. Keep up the good work!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r466175753-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>466175753</t>
+  </si>
+  <si>
+    <t>03/10/2017</t>
+  </si>
+  <si>
+    <t>Bring your hiking shoes</t>
+  </si>
+  <si>
+    <t>we had reservations and got in late. We unloaded our car and checked in. We later found out later at the elevator was broken. I guess the young lady at the desk was going to surprise us. My wife with bad knees had to walk up stairs to get to the room carrying luggage. We come to this area often and will go back to the holiday in express.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Barbara E, General Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded March 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2017</t>
+  </si>
+  <si>
+    <t>we had reservations and got in late. We unloaded our car and checked in. We later found out later at the elevator was broken. I guess the young lady at the desk was going to surprise us. My wife with bad knees had to walk up stairs to get to the room carrying luggage. We come to this area often and will go back to the holiday in express.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r423350447-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>423350447</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>My son and I stayed in a two-bedroom, two-bath suite.  I thought the price was very reasonable, and the rooms were nice.  There were even two thermostats so that the bedrooms could have different temperatures.  One bathroom was handicapped accessible with a walk-in shower.  The drainage could have been better in that room.  Even though there were two drains --one in the shower and one in the middle of the bathroom floor, it was hard to "contain" the water inside the shower, so the rug got sopping wet.  Otherwise, the rooms were super nice and the kitchen was well stocked with pots and pans, dishes, silverware, paper towels--even dish soap and dishwasher soap for the dishwasher.  I was impressed.  Rooms were clean and the beds were very comfy.  I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Barbara E, General Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded September 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2016</t>
+  </si>
+  <si>
+    <t>My son and I stayed in a two-bedroom, two-bath suite.  I thought the price was very reasonable, and the rooms were nice.  There were even two thermostats so that the bedrooms could have different temperatures.  One bathroom was handicapped accessible with a walk-in shower.  The drainage could have been better in that room.  Even though there were two drains --one in the shower and one in the middle of the bathroom floor, it was hard to "contain" the water inside the shower, so the rug got sopping wet.  Otherwise, the rooms were super nice and the kitchen was well stocked with pots and pans, dishes, silverware, paper towels--even dish soap and dishwasher soap for the dishwasher.  I was impressed.  Rooms were clean and the beds were very comfy.  I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r421581108-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>421581108</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>Good value/kitchenette</t>
+  </si>
+  <si>
+    <t>Rooms relatively quiet. Stayed in two different rooms on first floor in successive weeks. Group rate negotiated was reasonable. Rooms in acceptable condition but show some wear.  Bedding very good. Breakfast was fair, included hot and savory items but exactly same food everyday. There is shopping and fast food nearby. I would do it again but not really strongly recommending.  Kitchenettes are very good and could be a big plus for some guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>Barbara E, General Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Rooms relatively quiet. Stayed in two different rooms on first floor in successive weeks. Group rate negotiated was reasonable. Rooms in acceptable condition but show some wear.  Bedding very good. Breakfast was fair, included hot and savory items but exactly same food everyday. There is shopping and fast food nearby. I would do it again but not really strongly recommending.  Kitchenettes are very good and could be a big plus for some guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r403904187-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>403904187</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>Great week</t>
+  </si>
+  <si>
+    <t>Very friendly staff. Very helpful. Room wasn't ready when we arrived but they offered some goodies while we waited. Room was very clean and beds very comfortable. We had a 2 bedroom suite that plenty of room for the 7 of us. Breakfast was fair, nothing to write home about but it was nice not to have to worry about a morning meal.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Barbara E, General Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded August 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2016</t>
+  </si>
+  <si>
+    <t>Very friendly staff. Very helpful. Room wasn't ready when we arrived but they offered some goodies while we waited. Room was very clean and beds very comfortable. We had a 2 bedroom suite that plenty of room for the 7 of us. Breakfast was fair, nothing to write home about but it was nice not to have to worry about a morning meal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r378472283-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>378472283</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Night Manager Ms. Bea Saved us after Air Bnb nightmare!</t>
+  </si>
+  <si>
+    <t>My boyfriend and I were traveling to Surfside Beach with my daughter. It was her first time on a plane and visiting the beach. It was a trip that was supposed to be relaxing and special. Anyone with children can appreciate the stress we were under. That being said we originally booked our stay with a homeowner in Surfside Beach through Air bnb. The stay was a complete nightmare. We spent the day in Galveston only to come back to a beach house that was completely flooded and streets to the house in accessible. We were told by the homeowner everything was fine prior to out return. At about 11pm my boyfriend and I found ourselves carrying all of our luggage and belongings through flood water a block to our rental car while the air bnb homeowner claimed to be unaware the condition was this bad (He lived in the unit above the apartment we were staying in. liar he just wanted to get paid) 
+After a stressful exchange and packing we found ourselves at Towne Place Suites after midnight greeted by Ms. Bea. I cant begin to stress how grateful I am to Ms. Bea for not only welcoming us with open arms and a great room, but she went above and beyond by helping me wash our flood ruined clothes. The next morning I was exhausted, she helped my daughter make a waffle and made sure my little...My boyfriend and I were traveling to Surfside Beach with my daughter. It was her first time on a plane and visiting the beach. It was a trip that was supposed to be relaxing and special. Anyone with children can appreciate the stress we were under. That being said we originally booked our stay with a homeowner in Surfside Beach through Air bnb. The stay was a complete nightmare. We spent the day in Galveston only to come back to a beach house that was completely flooded and streets to the house in accessible. We were told by the homeowner everything was fine prior to out return. At about 11pm my boyfriend and I found ourselves carrying all of our luggage and belongings through flood water a block to our rental car while the air bnb homeowner claimed to be unaware the condition was this bad (He lived in the unit above the apartment we were staying in. liar he just wanted to get paid) After a stressful exchange and packing we found ourselves at Towne Place Suites after midnight greeted by Ms. Bea. I cant begin to stress how grateful I am to Ms. Bea for not only welcoming us with open arms and a great room, but she went above and beyond by helping me wash our flood ruined clothes. The next morning I was exhausted, she helped my daughter make a waffle and made sure my little family had a place to sit in the dining area. The morning manager, Kesha, was just as great. The entire staff of this hotel was outstanding. We will NEVER use air bnb again. I urge anyone thinking about air bnb to reconsider. Their customer service is okay upfront but seriously lacks on the follow through. I highly recommend this hotel. They cared about us and went above and beyond to make sure our vacation had a quick turn around, for the better. I am an engineer for Ameren the power company in MO and IL I travel for business weekly and am in hotels constantly, I have never met a better hotel staff.Thank you Ms. Bea, I will never forget the kindness you showed my family.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Barbara E, General Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded June 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2016</t>
+  </si>
+  <si>
+    <t>My boyfriend and I were traveling to Surfside Beach with my daughter. It was her first time on a plane and visiting the beach. It was a trip that was supposed to be relaxing and special. Anyone with children can appreciate the stress we were under. That being said we originally booked our stay with a homeowner in Surfside Beach through Air bnb. The stay was a complete nightmare. We spent the day in Galveston only to come back to a beach house that was completely flooded and streets to the house in accessible. We were told by the homeowner everything was fine prior to out return. At about 11pm my boyfriend and I found ourselves carrying all of our luggage and belongings through flood water a block to our rental car while the air bnb homeowner claimed to be unaware the condition was this bad (He lived in the unit above the apartment we were staying in. liar he just wanted to get paid) 
+After a stressful exchange and packing we found ourselves at Towne Place Suites after midnight greeted by Ms. Bea. I cant begin to stress how grateful I am to Ms. Bea for not only welcoming us with open arms and a great room, but she went above and beyond by helping me wash our flood ruined clothes. The next morning I was exhausted, she helped my daughter make a waffle and made sure my little...My boyfriend and I were traveling to Surfside Beach with my daughter. It was her first time on a plane and visiting the beach. It was a trip that was supposed to be relaxing and special. Anyone with children can appreciate the stress we were under. That being said we originally booked our stay with a homeowner in Surfside Beach through Air bnb. The stay was a complete nightmare. We spent the day in Galveston only to come back to a beach house that was completely flooded and streets to the house in accessible. We were told by the homeowner everything was fine prior to out return. At about 11pm my boyfriend and I found ourselves carrying all of our luggage and belongings through flood water a block to our rental car while the air bnb homeowner claimed to be unaware the condition was this bad (He lived in the unit above the apartment we were staying in. liar he just wanted to get paid) After a stressful exchange and packing we found ourselves at Towne Place Suites after midnight greeted by Ms. Bea. I cant begin to stress how grateful I am to Ms. Bea for not only welcoming us with open arms and a great room, but she went above and beyond by helping me wash our flood ruined clothes. The next morning I was exhausted, she helped my daughter make a waffle and made sure my little family had a place to sit in the dining area. The morning manager, Kesha, was just as great. The entire staff of this hotel was outstanding. We will NEVER use air bnb again. I urge anyone thinking about air bnb to reconsider. Their customer service is okay upfront but seriously lacks on the follow through. I highly recommend this hotel. They cared about us and went above and beyond to make sure our vacation had a quick turn around, for the better. I am an engineer for Ameren the power company in MO and IL I travel for business weekly and am in hotels constantly, I have never met a better hotel staff.Thank you Ms. Bea, I will never forget the kindness you showed my family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r377970282-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>377970282</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Found fleas in room!</t>
+  </si>
+  <si>
+    <t>BEWARE OF FLEAS! I came here with my wife, 3 month old baby, and little yorkie dog over Memorial Day Weekend in 2016. My wife is an loyal Marriott customer. We stayed in room 219 and found fleas in our bed. It's a 'dog friendly' hotel, but they should take proper action to treat rooms with pets staying in them after each use. If I'm paying an extra $20 - $100 for my dog to stay there, I expect the room to be free of FLEAS. Get it cleaned properly.
+At first my dog wouldn't sleep, so I kept taking her out to potty. Then at 3am my wife was itching and turned on the lights and found fleas (we thought there were beg bugs at first) in our bed. I'm sure they were all over the room but it was hard to tell with the dark carpet.
+We called the front desk and within 30 minutes they gave us a new room. The lady was very nice and sympathetic no complaints about how she handled the situation. Although I wished she would of offered to help me move my stuff.
+This was a huge headache for us because have a baby and small dog and being worried about  fleas was a nightmare. We didn't want to interrupt our baby's sleep so I had my wife go down with the dog and bathe her, first. Then I brought the baby...BEWARE OF FLEAS! I came here with my wife, 3 month old baby, and little yorkie dog over Memorial Day Weekend in 2016. My wife is an loyal Marriott customer. We stayed in room 219 and found fleas in our bed. It's a 'dog friendly' hotel, but they should take proper action to treat rooms with pets staying in them after each use. If I'm paying an extra $20 - $100 for my dog to stay there, I expect the room to be free of FLEAS. Get it cleaned properly.At first my dog wouldn't sleep, so I kept taking her out to potty. Then at 3am my wife was itching and turned on the lights and found fleas (we thought there were beg bugs at first) in our bed. I'm sure they were all over the room but it was hard to tell with the dark carpet.We called the front desk and within 30 minutes they gave us a new room. The lady was very nice and sympathetic no complaints about how she handled the situation. Although I wished she would of offered to help me move my stuff.This was a huge headache for us because have a baby and small dog and being worried about  fleas was a nightmare. We didn't want to interrupt our baby's sleep so I had my wife go down with the dog and bathe her, first. Then I brought the baby (which was in a separate room). Then I had to make multiple trips to bring things down.We didn't get any sleep that night. In the new room our dog still refused to get on the bed or even carpet so I don't know if there was more fleas or she was  traumatized from the event.The next morning, we met the front desk manager and she told us that she wouldn't charge us a thing. She also told me that a lady stayed there a week ago with cats and she thought that was the source of the fleas. This ended up blowing our vacation and we went home the next day. We got home and had to wash and wipe down everything and we are still scared there could be a potential flea that causes havoc.I am very disappointed in Marriott's cleaning practices. Furious to be honest. The hallway's were also hot and humid.Would only give 1 star but the staff handled the situation well, so I'm giving 2 to be fair.MoreShow less</t>
+  </si>
+  <si>
+    <t>Barbara E, General Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded June 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2016</t>
+  </si>
+  <si>
+    <t>BEWARE OF FLEAS! I came here with my wife, 3 month old baby, and little yorkie dog over Memorial Day Weekend in 2016. My wife is an loyal Marriott customer. We stayed in room 219 and found fleas in our bed. It's a 'dog friendly' hotel, but they should take proper action to treat rooms with pets staying in them after each use. If I'm paying an extra $20 - $100 for my dog to stay there, I expect the room to be free of FLEAS. Get it cleaned properly.
+At first my dog wouldn't sleep, so I kept taking her out to potty. Then at 3am my wife was itching and turned on the lights and found fleas (we thought there were beg bugs at first) in our bed. I'm sure they were all over the room but it was hard to tell with the dark carpet.
+We called the front desk and within 30 minutes they gave us a new room. The lady was very nice and sympathetic no complaints about how she handled the situation. Although I wished she would of offered to help me move my stuff.
+This was a huge headache for us because have a baby and small dog and being worried about  fleas was a nightmare. We didn't want to interrupt our baby's sleep so I had my wife go down with the dog and bathe her, first. Then I brought the baby...BEWARE OF FLEAS! I came here with my wife, 3 month old baby, and little yorkie dog over Memorial Day Weekend in 2016. My wife is an loyal Marriott customer. We stayed in room 219 and found fleas in our bed. It's a 'dog friendly' hotel, but they should take proper action to treat rooms with pets staying in them after each use. If I'm paying an extra $20 - $100 for my dog to stay there, I expect the room to be free of FLEAS. Get it cleaned properly.At first my dog wouldn't sleep, so I kept taking her out to potty. Then at 3am my wife was itching and turned on the lights and found fleas (we thought there were beg bugs at first) in our bed. I'm sure they were all over the room but it was hard to tell with the dark carpet.We called the front desk and within 30 minutes they gave us a new room. The lady was very nice and sympathetic no complaints about how she handled the situation. Although I wished she would of offered to help me move my stuff.This was a huge headache for us because have a baby and small dog and being worried about  fleas was a nightmare. We didn't want to interrupt our baby's sleep so I had my wife go down with the dog and bathe her, first. Then I brought the baby (which was in a separate room). Then I had to make multiple trips to bring things down.We didn't get any sleep that night. In the new room our dog still refused to get on the bed or even carpet so I don't know if there was more fleas or she was  traumatized from the event.The next morning, we met the front desk manager and she told us that she wouldn't charge us a thing. She also told me that a lady stayed there a week ago with cats and she thought that was the source of the fleas. This ended up blowing our vacation and we went home the next day. We got home and had to wash and wipe down everything and we are still scared there could be a potential flea that causes havoc.I am very disappointed in Marriott's cleaning practices. Furious to be honest. The hallway's were also hot and humid.Would only give 1 star but the staff handled the situation well, so I'm giving 2 to be fair.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r377475100-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>377475100</t>
+  </si>
+  <si>
+    <t>05/28/2016</t>
+  </si>
+  <si>
+    <t>Great customer service!</t>
+  </si>
+  <si>
+    <t>We were supposed to stay here for about a month while working in the area, but the job was postponed and we only stayed for one night. I contacted the hotel several times for different reasons prior to our stay, and every one I spoke to was very helpful and friendly. Our suite was clean and would be nice for an extended stay. The only drawback was that there's only a stovetop and no oven, but that's not a big deal.  We would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Barbara E, General Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded May 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2016</t>
+  </si>
+  <si>
+    <t>We were supposed to stay here for about a month while working in the area, but the job was postponed and we only stayed for one night. I contacted the hotel several times for different reasons prior to our stay, and every one I spoke to was very helpful and friendly. Our suite was clean and would be nice for an extended stay. The only drawback was that there's only a stovetop and no oven, but that's not a big deal.  We would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r349415122-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>349415122</t>
+  </si>
+  <si>
+    <t>02/20/2016</t>
+  </si>
+  <si>
+    <t>Centrally Located</t>
+  </si>
+  <si>
+    <t>This hotel reminds me of being home. Its location is good access to main highway is to drive out the driveway. The continental breakfasts had a very  healthy friendly choice's. The rooms were super clean!.!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded February 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2016</t>
+  </si>
+  <si>
+    <t>This hotel reminds me of being home. Its location is good access to main highway is to drive out the driveway. The continental breakfasts had a very  healthy friendly choice's. The rooms were super clean!.!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r338767316-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>338767316</t>
+  </si>
+  <si>
+    <t>01/09/2016</t>
+  </si>
+  <si>
+    <t>Noisy Room</t>
+  </si>
+  <si>
+    <t>Room walls must be thin. I could hear the noisy neighbors that stayed up all night. If I can't get to sleep then there is no reason to stay here. Breakfast food was so-so at best. Staff was good and place was clean, but I expect to be able to sleep at a hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded January 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2016</t>
+  </si>
+  <si>
+    <t>Room walls must be thin. I could hear the noisy neighbors that stayed up all night. If I can't get to sleep then there is no reason to stay here. Breakfast food was so-so at best. Staff was good and place was clean, but I expect to be able to sleep at a hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r330883407-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>330883407</t>
+  </si>
+  <si>
+    <t>12/05/2015</t>
+  </si>
+  <si>
+    <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>Well stocked room.clean.everyone went above and beyond even the housekeepers.Breakfast needs a little work but overall was good for what was there.I would definitely stay again if given the opportunity.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded December 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2015</t>
+  </si>
+  <si>
+    <t>Well stocked room.clean.everyone went above and beyond even the housekeepers.Breakfast needs a little work but overall was good for what was there.I would definitely stay again if given the opportunity.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r313869569-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>313869569</t>
+  </si>
+  <si>
+    <t>09/26/2015</t>
+  </si>
+  <si>
+    <t>Good nights sleep, friendly staff</t>
+  </si>
+  <si>
+    <t>We came down to Lake Jackson to see our newest grand baby.  Even though we checked in rather late the staff was available, attentive and accommodated our needs.  Breakfast the next morning was just as friendly and accommodating.  We will definitely be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded September 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2015</t>
+  </si>
+  <si>
+    <t>We came down to Lake Jackson to see our newest grand baby.  Even though we checked in rather late the staff was available, attentive and accommodated our needs.  Breakfast the next morning was just as friendly and accommodating.  We will definitely be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r312890484-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>312890484</t>
+  </si>
+  <si>
+    <t>09/22/2015</t>
+  </si>
+  <si>
+    <t>Clean Hotel with Very Good Extended Stay Amenities; Friendly and Helpful Staff</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel a couple of nights on business and I found the front-desk clerk very friendly as I checked in. I asked her for restaurant recommendations, explaining I was looking for seafood, and she recommended Lake Jackson Seafood, which turned out to be a wonderful place to eat. My room was very clean and smelled fresh – my boss stayed in a nearby room and he reported he loved the clean smell, too. Compared to some other extended-stay hotels I've stayed in, the room seemed very spacious and open (even compared to some Residence Inns, which are also Marriott properties). I needed to iron a couple of dress shirts and the iron and ironing board were in good shape and fully operational. There's not much of a view from this hotel (construction on one side where another property seems to be in the middle of development and another hotel on the other side, plus the area is very flat as it's in the coastal plain), but you can kick back in these rooms and feel like home otherwise. The only thing lacking from my viewpoint was the breakfast. As a pescatarian who eats no dairy or eggs, I usually find oatmeal or grits are available but not here; there were bananas and apples available, though. The water pressure on the second floor was a little low, but nothing really problematic. I would feel comfortable recommending this hotel...I stayed at this hotel a couple of nights on business and I found the front-desk clerk very friendly as I checked in. I asked her for restaurant recommendations, explaining I was looking for seafood, and she recommended Lake Jackson Seafood, which turned out to be a wonderful place to eat. My room was very clean and smelled fresh – my boss stayed in a nearby room and he reported he loved the clean smell, too. Compared to some other extended-stay hotels I've stayed in, the room seemed very spacious and open (even compared to some Residence Inns, which are also Marriott properties). I needed to iron a couple of dress shirts and the iron and ironing board were in good shape and fully operational. There's not much of a view from this hotel (construction on one side where another property seems to be in the middle of development and another hotel on the other side, plus the area is very flat as it's in the coastal plain), but you can kick back in these rooms and feel like home otherwise. The only thing lacking from my viewpoint was the breakfast. As a pescatarian who eats no dairy or eggs, I usually find oatmeal or grits are available but not here; there were bananas and apples available, though. The water pressure on the second floor was a little low, but nothing really problematic. I would feel comfortable recommending this hotel to anyone staying in the Clute or Lake Jackson area, plus, it's the only Marriott property for miles around.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ashley B, General Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded September 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2015</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel a couple of nights on business and I found the front-desk clerk very friendly as I checked in. I asked her for restaurant recommendations, explaining I was looking for seafood, and she recommended Lake Jackson Seafood, which turned out to be a wonderful place to eat. My room was very clean and smelled fresh – my boss stayed in a nearby room and he reported he loved the clean smell, too. Compared to some other extended-stay hotels I've stayed in, the room seemed very spacious and open (even compared to some Residence Inns, which are also Marriott properties). I needed to iron a couple of dress shirts and the iron and ironing board were in good shape and fully operational. There's not much of a view from this hotel (construction on one side where another property seems to be in the middle of development and another hotel on the other side, plus the area is very flat as it's in the coastal plain), but you can kick back in these rooms and feel like home otherwise. The only thing lacking from my viewpoint was the breakfast. As a pescatarian who eats no dairy or eggs, I usually find oatmeal or grits are available but not here; there were bananas and apples available, though. The water pressure on the second floor was a little low, but nothing really problematic. I would feel comfortable recommending this hotel...I stayed at this hotel a couple of nights on business and I found the front-desk clerk very friendly as I checked in. I asked her for restaurant recommendations, explaining I was looking for seafood, and she recommended Lake Jackson Seafood, which turned out to be a wonderful place to eat. My room was very clean and smelled fresh – my boss stayed in a nearby room and he reported he loved the clean smell, too. Compared to some other extended-stay hotels I've stayed in, the room seemed very spacious and open (even compared to some Residence Inns, which are also Marriott properties). I needed to iron a couple of dress shirts and the iron and ironing board were in good shape and fully operational. There's not much of a view from this hotel (construction on one side where another property seems to be in the middle of development and another hotel on the other side, plus the area is very flat as it's in the coastal plain), but you can kick back in these rooms and feel like home otherwise. The only thing lacking from my viewpoint was the breakfast. As a pescatarian who eats no dairy or eggs, I usually find oatmeal or grits are available but not here; there were bananas and apples available, though. The water pressure on the second floor was a little low, but nothing really problematic. I would feel comfortable recommending this hotel to anyone staying in the Clute or Lake Jackson area, plus, it's the only Marriott property for miles around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r309955808-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>309955808</t>
+  </si>
+  <si>
+    <t>09/13/2015</t>
+  </si>
+  <si>
+    <t>Great hotel and staff</t>
+  </si>
+  <si>
+    <t>Worked night shift and after hanging the Do Not Disturb sign on the door did not have to worry about getting woke up.  After leaving at 1 p.m. staff would have my room cleaned before my return to get ready for work at 3.  Great front desk staff.  Quiet, clean hotel.  Large rooms with plenty of area to stretch out.  Well staffed kitchen with full refrigerator, microwave, stove, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded September 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2015</t>
+  </si>
+  <si>
+    <t>Worked night shift and after hanging the Do Not Disturb sign on the door did not have to worry about getting woke up.  After leaving at 1 p.m. staff would have my room cleaned before my return to get ready for work at 3.  Great front desk staff.  Quiet, clean hotel.  Large rooms with plenty of area to stretch out.  Well staffed kitchen with full refrigerator, microwave, stove, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r289016378-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>289016378</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>Perfect fro long term stay or quick trip</t>
+  </si>
+  <si>
+    <t>New facility with great rooms. Perfect for long term, closest to a Residence Inn in area. They also have double bedrooms if traveling with a larger family. There is a kitchenette with a modern microwave and a ceramic cook top that is better than most places in the area.  My unit had two bedrooms and two bathrooms that would accommodate a family quite well.  This is also just a few miles from the shore with great beaches.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded July 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2015</t>
+  </si>
+  <si>
+    <t>New facility with great rooms. Perfect for long term, closest to a Residence Inn in area. They also have double bedrooms if traveling with a larger family. There is a kitchenette with a modern microwave and a ceramic cook top that is better than most places in the area.  My unit had two bedrooms and two bathrooms that would accommodate a family quite well.  This is also just a few miles from the shore with great beaches.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r285154232-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>285154232</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>Urine in both beds / Black Mold growing in vents!!!</t>
+  </si>
+  <si>
+    <t>We stayed at hotel previously, experience was good and even provided Marriott a survey response of 10's!  Stayed there 
+Check in today July, 1st and front desk could not figure out how to link a credit card for incidentals, not a big deal.  We get to room #208 and I smell a moldy damp smell.  See attached on what we found - major Toxic Mold growing in vents!  The purpose of our visit was to attend a funeral and were running late.  When I called down to speak to Manager, feedback was they were 100% booked however a manger and host at front desk would come up to check.  Waited 20min and no response so I ended up going down and they moved us to room #206 since the first picture attached shows the vents with Black Mold growing in vents!
+We got back around 10:45 pm and my oldest son said that he was lying in bed and smelt like urine.  My wife pulled the sheets back and found a huge urine stain on one bed then the second one as well!  We went down to address this and Hotel provided absolutely zero support.  This is completely unacceptable and the fact that we have zero options at midnight but to put another layer of sheets and bedspread over the bed is gross, unhealthy and just looked up at vent and what do I find, another room with "Black Mold?!?!...We stayed at hotel previously, experience was good and even provided Marriott a survey response of 10's!  Stayed there Check in today July, 1st and front desk could not figure out how to link a credit card for incidentals, not a big deal.  We get to room #208 and I smell a moldy damp smell.  See attached on what we found - major Toxic Mold growing in vents!  The purpose of our visit was to attend a funeral and were running late.  When I called down to speak to Manager, feedback was they were 100% booked however a manger and host at front desk would come up to check.  Waited 20min and no response so I ended up going down and they moved us to room #206 since the first picture attached shows the vents with Black Mold growing in vents!We got back around 10:45 pm and my oldest son said that he was lying in bed and smelt like urine.  My wife pulled the sheets back and found a huge urine stain on one bed then the second one as well!  We went down to address this and Hotel provided absolutely zero support.  This is completely unacceptable and the fact that we have zero options at midnight but to put another layer of sheets and bedspread over the bed is gross, unhealthy and just looked up at vent and what do I find, another room with "Black Mold?!?!  When we called downstairs, the host said there was nothing she could do since managers were not available?Kick in the chin was they credited me points to my Marriott Reward (did not ask for this and trust me, 10,000 points is offensive when the issue was urine and mold!). I asked for the manager and she was tied up speaking to someone else and decided to pawn me off to someone else to discuss.  She apologized after I told them to forget this and would handle with corporate later.  Simply said, pictures tell the whole story!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded July 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at hotel previously, experience was good and even provided Marriott a survey response of 10's!  Stayed there 
+Check in today July, 1st and front desk could not figure out how to link a credit card for incidentals, not a big deal.  We get to room #208 and I smell a moldy damp smell.  See attached on what we found - major Toxic Mold growing in vents!  The purpose of our visit was to attend a funeral and were running late.  When I called down to speak to Manager, feedback was they were 100% booked however a manger and host at front desk would come up to check.  Waited 20min and no response so I ended up going down and they moved us to room #206 since the first picture attached shows the vents with Black Mold growing in vents!
+We got back around 10:45 pm and my oldest son said that he was lying in bed and smelt like urine.  My wife pulled the sheets back and found a huge urine stain on one bed then the second one as well!  We went down to address this and Hotel provided absolutely zero support.  This is completely unacceptable and the fact that we have zero options at midnight but to put another layer of sheets and bedspread over the bed is gross, unhealthy and just looked up at vent and what do I find, another room with "Black Mold?!?!...We stayed at hotel previously, experience was good and even provided Marriott a survey response of 10's!  Stayed there Check in today July, 1st and front desk could not figure out how to link a credit card for incidentals, not a big deal.  We get to room #208 and I smell a moldy damp smell.  See attached on what we found - major Toxic Mold growing in vents!  The purpose of our visit was to attend a funeral and were running late.  When I called down to speak to Manager, feedback was they were 100% booked however a manger and host at front desk would come up to check.  Waited 20min and no response so I ended up going down and they moved us to room #206 since the first picture attached shows the vents with Black Mold growing in vents!We got back around 10:45 pm and my oldest son said that he was lying in bed and smelt like urine.  My wife pulled the sheets back and found a huge urine stain on one bed then the second one as well!  We went down to address this and Hotel provided absolutely zero support.  This is completely unacceptable and the fact that we have zero options at midnight but to put another layer of sheets and bedspread over the bed is gross, unhealthy and just looked up at vent and what do I find, another room with "Black Mold?!?!  When we called downstairs, the host said there was nothing she could do since managers were not available?Kick in the chin was they credited me points to my Marriott Reward (did not ask for this and trust me, 10,000 points is offensive when the issue was urine and mold!). I asked for the manager and she was tied up speaking to someone else and decided to pawn me off to someone else to discuss.  She apologized after I told them to forget this and would handle with corporate later.  Simply said, pictures tell the whole story!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r282765238-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>282765238</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>We had a few issues with the rooms but nothing major.  They were unable to find one of the rooms on our reservation but we booked through Hotels.com so its hard to tell where the error occurred.  My room (2 bedroom suite) was clean but we had a problem with the AC not working well.  We reported to front desk and it was fixed immediately.  Fridge in our room wasn't working the best but this wasn't really a concern to us.  We were on the second floor but others from our party were on the first floor where they found a cockroach in their room.  Apparently this is an issue in the area. The breakfast was mediocre.  By the time we went to eat there was very little hot food left as it didn't appeared they refilled it.  Overall, rooms were fine and we had plenty of space in the suite and 1 bedroom king.  Clean, good location near major highway, free wifi, pool and fitness center.  We didn't spend much time at the hotel but it served it's function well.  Would stay again if I was in the area.  Check out Shipley's Donuts not far away while you are there!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded June 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2015</t>
+  </si>
+  <si>
+    <t>We had a few issues with the rooms but nothing major.  They were unable to find one of the rooms on our reservation but we booked through Hotels.com so its hard to tell where the error occurred.  My room (2 bedroom suite) was clean but we had a problem with the AC not working well.  We reported to front desk and it was fixed immediately.  Fridge in our room wasn't working the best but this wasn't really a concern to us.  We were on the second floor but others from our party were on the first floor where they found a cockroach in their room.  Apparently this is an issue in the area. The breakfast was mediocre.  By the time we went to eat there was very little hot food left as it didn't appeared they refilled it.  Overall, rooms were fine and we had plenty of space in the suite and 1 bedroom king.  Clean, good location near major highway, free wifi, pool and fitness center.  We didn't spend much time at the hotel but it served it's function well.  Would stay again if I was in the area.  Check out Shipley's Donuts not far away while you are there!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r264134275-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>264134275</t>
+  </si>
+  <si>
+    <t>04/06/2015</t>
+  </si>
+  <si>
+    <t>Clean &amp; Quiet</t>
+  </si>
+  <si>
+    <t>After a few hiccupps with the reservation, we got it all sorted out and had a very nice stay while in the LakeJackson area for a wedding.  So nice to have the kitchenett. The room was very clean and well furnished. There was room to sleep 6 with the 2 queen size beds and a pull-out sofa. Tasty Breakfast from 5:30-9:00.  Though we didn't bring our fur-baby this time, the grass around the property was green and free of burs/stickers.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded April 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2015</t>
+  </si>
+  <si>
+    <t>After a few hiccupps with the reservation, we got it all sorted out and had a very nice stay while in the LakeJackson area for a wedding.  So nice to have the kitchenett. The room was very clean and well furnished. There was room to sleep 6 with the 2 queen size beds and a pull-out sofa. Tasty Breakfast from 5:30-9:00.  Though we didn't bring our fur-baby this time, the grass around the property was green and free of burs/stickers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r261235541-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>261235541</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>Great staff = Great property</t>
+  </si>
+  <si>
+    <t>I stay in Marriott's over 15 days every month on business but when I come down to this area its on my time. The staff here is excellent.....friendly and personable. It's really like a second home. Miss Estella is so sweet I am disappointed if I miss her. It means so much to me since I travel and stay in hotels weekly to know good people are there. I dont usually do these but on my last trip Lauren gets the credit. She can handle anything and is always upbeat. This is an outstanding Marriott property. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded March 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2015</t>
+  </si>
+  <si>
+    <t>I stay in Marriott's over 15 days every month on business but when I come down to this area its on my time. The staff here is excellent.....friendly and personable. It's really like a second home. Miss Estella is so sweet I am disappointed if I miss her. It means so much to me since I travel and stay in hotels weekly to know good people are there. I dont usually do these but on my last trip Lauren gets the credit. She can handle anything and is always upbeat. This is an outstanding Marriott property. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r250686649-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>250686649</t>
+  </si>
+  <si>
+    <t>01/23/2015</t>
+  </si>
+  <si>
+    <t>Best in Town</t>
+  </si>
+  <si>
+    <t>Another quality Marriot location.  property grounds and building are well maintained.  Staff was extremely friendly and helpful.  Room had all of the things I have come to expect, comfortable bed, pillows and a well equipped work area.  Breakfast was plenty.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded January 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2015</t>
+  </si>
+  <si>
+    <t>Another quality Marriot location.  property grounds and building are well maintained.  Staff was extremely friendly and helpful.  Room had all of the things I have come to expect, comfortable bed, pillows and a well equipped work area.  Breakfast was plenty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r236704329-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>236704329</t>
+  </si>
+  <si>
+    <t>10/28/2014</t>
+  </si>
+  <si>
+    <t>Super Clean, Great Staff</t>
+  </si>
+  <si>
+    <t>I stayed at Towneplace suites for 50 nights, starting early Sept 2014. This place is ultra-clean, good sized rooms, quiet and  staffed with a 5-star crew. A special thanks to Night Counter Attendant Ms. Beatrice Edwards. The entire staff was always friendly and helpful, but Ms. Bea went out of her way to be hospitable and make me feel like I was at home.  Every staff member greeted me by name!  I work 12 hour days, 7 days a week.  When you work those hours, small  details can make a big difference. Their were a lot of business travelers staying here from the Oil and Gas business. Our work days start ultra early.  We could always count on Ms Bea having breakfast out EARLY to cater to her early risers. Again, the little details..
+a Plus:  Every floor had a well equipped laundry room with 3 washers and 3 dryers THAT ACTUALLY WORKED, and only cost $2.50 to wash/dry per load.
+The only aspect I would say lacked was their gym and maybe their WiFi. The gym was a little sparse and w no scale. And you needed to sign in to their WiFi every time you left the hotel and came back. Kind of a pain, but the WiFi was fast. 
+Top notch.  I would highly recommend. And if you happen to check in a night and meet Ms. Bea, your stay will surely start off the right way....I stayed at Towneplace suites for 50 nights, starting early Sept 2014. This place is ultra-clean, good sized rooms, quiet and  staffed with a 5-star crew. A special thanks to Night Counter Attendant Ms. Beatrice Edwards. The entire staff was always friendly and helpful, but Ms. Bea went out of her way to be hospitable and make me feel like I was at home.  Every staff member greeted me by name!  I work 12 hour days, 7 days a week.  When you work those hours, small  details can make a big difference. Their were a lot of business travelers staying here from the Oil and Gas business. Our work days start ultra early.  We could always count on Ms Bea having breakfast out EARLY to cater to her early risers. Again, the little details..a Plus:  Every floor had a well equipped laundry room with 3 washers and 3 dryers THAT ACTUALLY WORKED, and only cost $2.50 to wash/dry per load.The only aspect I would say lacked was their gym and maybe their WiFi. The gym was a little sparse and w no scale. And you needed to sign in to their WiFi every time you left the hotel and came back. Kind of a pain, but the WiFi was fast. Top notch.  I would highly recommend. And if you happen to check in a night and meet Ms. Bea, your stay will surely start off the right way.I travel 11 - 12 months a year and the Staff at TownePlace Suties - Clute were knowledgeable and quick with any service requested. I'm staying at a Holiday Inn in Louisiana now and the front desk help leaves a lot to be desired.Good job, Marriott!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded October 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2014</t>
+  </si>
+  <si>
+    <t>I stayed at Towneplace suites for 50 nights, starting early Sept 2014. This place is ultra-clean, good sized rooms, quiet and  staffed with a 5-star crew. A special thanks to Night Counter Attendant Ms. Beatrice Edwards. The entire staff was always friendly and helpful, but Ms. Bea went out of her way to be hospitable and make me feel like I was at home.  Every staff member greeted me by name!  I work 12 hour days, 7 days a week.  When you work those hours, small  details can make a big difference. Their were a lot of business travelers staying here from the Oil and Gas business. Our work days start ultra early.  We could always count on Ms Bea having breakfast out EARLY to cater to her early risers. Again, the little details..
+a Plus:  Every floor had a well equipped laundry room with 3 washers and 3 dryers THAT ACTUALLY WORKED, and only cost $2.50 to wash/dry per load.
+The only aspect I would say lacked was their gym and maybe their WiFi. The gym was a little sparse and w no scale. And you needed to sign in to their WiFi every time you left the hotel and came back. Kind of a pain, but the WiFi was fast. 
+Top notch.  I would highly recommend. And if you happen to check in a night and meet Ms. Bea, your stay will surely start off the right way....I stayed at Towneplace suites for 50 nights, starting early Sept 2014. This place is ultra-clean, good sized rooms, quiet and  staffed with a 5-star crew. A special thanks to Night Counter Attendant Ms. Beatrice Edwards. The entire staff was always friendly and helpful, but Ms. Bea went out of her way to be hospitable and make me feel like I was at home.  Every staff member greeted me by name!  I work 12 hour days, 7 days a week.  When you work those hours, small  details can make a big difference. Their were a lot of business travelers staying here from the Oil and Gas business. Our work days start ultra early.  We could always count on Ms Bea having breakfast out EARLY to cater to her early risers. Again, the little details..a Plus:  Every floor had a well equipped laundry room with 3 washers and 3 dryers THAT ACTUALLY WORKED, and only cost $2.50 to wash/dry per load.The only aspect I would say lacked was their gym and maybe their WiFi. The gym was a little sparse and w no scale. And you needed to sign in to their WiFi every time you left the hotel and came back. Kind of a pain, but the WiFi was fast. Top notch.  I would highly recommend. And if you happen to check in a night and meet Ms. Bea, your stay will surely start off the right way.I travel 11 - 12 months a year and the Staff at TownePlace Suties - Clute were knowledgeable and quick with any service requested. I'm staying at a Holiday Inn in Louisiana now and the front desk help leaves a lot to be desired.Good job, Marriott!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r233485224-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>233485224</t>
+  </si>
+  <si>
+    <t>10/09/2014</t>
+  </si>
+  <si>
+    <t>Clean &amp; comfy</t>
+  </si>
+  <si>
+    <t>The stay here is related to work. I am working in this area for months at a time and this hotel offered an at-home feel. A full kitchen and separate bedroom with large closet is great when my spouse is with me. The rooms, including the bathroom, are very nicely sized with a sofa &amp; TV in the sitting area and a large table in kitchen area.  There is a guest laundry as well, which is a plus, however, we have stayed at other properties that offer FREE guest laundry facilities on site.  There is a complimentary breakfast, but not much variety. Only bran type cereals, which is not a favorite with children, are on the menu. After a week stay, I have only seen breakfast sausage &amp; no bacon, &amp; only bagels or muffins and no biscuits or bread for toast.  There is room for improvement there. The staff was nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded October 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2014</t>
+  </si>
+  <si>
+    <t>The stay here is related to work. I am working in this area for months at a time and this hotel offered an at-home feel. A full kitchen and separate bedroom with large closet is great when my spouse is with me. The rooms, including the bathroom, are very nicely sized with a sofa &amp; TV in the sitting area and a large table in kitchen area.  There is a guest laundry as well, which is a plus, however, we have stayed at other properties that offer FREE guest laundry facilities on site.  There is a complimentary breakfast, but not much variety. Only bran type cereals, which is not a favorite with children, are on the menu. After a week stay, I have only seen breakfast sausage &amp; no bacon, &amp; only bagels or muffins and no biscuits or bread for toast.  There is room for improvement there. The staff was nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r230784062-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>230784062</t>
+  </si>
+  <si>
+    <t>09/24/2014</t>
+  </si>
+  <si>
+    <t>Almost squeaked out a five star review!</t>
+  </si>
+  <si>
+    <t>I almost never give five-star reviews because ... well, most hotel properties aren't worthy of such a ranking, and if I gave everything five stars then my reviews would be just a bunch of meaningless, emotional claptrap.  So let's get down to business.  I spent two nights at the Towneplace Suites Lake Jackson/Clute in late September, and enjoyed every moment of it.  The staff is friendly and helpful.  The building seems to be new, and is squeaky-clean.  The breakfast included some hot items and was more than adequate.  The one and ONLY thing about this hotel that nearly drove me nuts was the excruciatingly slow Internet.  It wasn't only slow -- it occasionally came to a screeching halt and I had to connect and reconnect until it decided to let me back on again.  Why do I care so much about the Internet?  Because I'm a business traveler -- it's how I file reports, do my time cards, research technical issues for clients, and so forth.  I don't expect the Internet at a hotel to be as fast as my connection at home, but at the bare minimum I expect something usable.   If it wasn't for the Internet issue, this TownePlace Suites would have easily had five stars from me.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded September 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2014</t>
+  </si>
+  <si>
+    <t>I almost never give five-star reviews because ... well, most hotel properties aren't worthy of such a ranking, and if I gave everything five stars then my reviews would be just a bunch of meaningless, emotional claptrap.  So let's get down to business.  I spent two nights at the Towneplace Suites Lake Jackson/Clute in late September, and enjoyed every moment of it.  The staff is friendly and helpful.  The building seems to be new, and is squeaky-clean.  The breakfast included some hot items and was more than adequate.  The one and ONLY thing about this hotel that nearly drove me nuts was the excruciatingly slow Internet.  It wasn't only slow -- it occasionally came to a screeching halt and I had to connect and reconnect until it decided to let me back on again.  Why do I care so much about the Internet?  Because I'm a business traveler -- it's how I file reports, do my time cards, research technical issues for clients, and so forth.  I don't expect the Internet at a hotel to be as fast as my connection at home, but at the bare minimum I expect something usable.   If it wasn't for the Internet issue, this TownePlace Suites would have easily had five stars from me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r223941046-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>223941046</t>
+  </si>
+  <si>
+    <t>08/23/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay with a family.</t>
+  </si>
+  <si>
+    <t>A really great place. Clean, friendly staff, nice and quiet, convenient location, and free breakfast. My family and I spent a long weekend here recently while visiting the beaches at Surfside. My wife left her Kindle in the night stand, and they mailed it back to us!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded August 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2014</t>
+  </si>
+  <si>
+    <t>A really great place. Clean, friendly staff, nice and quiet, convenient location, and free breakfast. My family and I spent a long weekend here recently while visiting the beaches at Surfside. My wife left her Kindle in the night stand, and they mailed it back to us!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r220908622-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>220908622</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>Okay place but pricey for what you get</t>
+  </si>
+  <si>
+    <t>Nothing wrong with the place except I felt it was way overpriced.   Paid $165 for a night when other comparable hotels (Hampton and Holiday Inn express were around $140).  Staff was nice and breakfast was okay.   Would not stay here again but only bc there are other hotels just as nice for $40 or more less.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded August 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2014</t>
+  </si>
+  <si>
+    <t>Nothing wrong with the place except I felt it was way overpriced.   Paid $165 for a night when other comparable hotels (Hampton and Holiday Inn express were around $140).  Staff was nice and breakfast was okay.   Would not stay here again but only bc there are other hotels just as nice for $40 or more less.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r220321344-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>220321344</t>
+  </si>
+  <si>
+    <t>08/07/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rooms are clean and spacious. </t>
+  </si>
+  <si>
+    <t>10 minutes to the beach.  Had plenty of room for family of 5. If i had known there was a kitchen in the room we would of had pizza.  Breakfast was alright and free.  Breakfast area is set up for couples so tables need to be pushed together for larger families.   MoreShow less</t>
+  </si>
+  <si>
+    <t>10 minutes to the beach.  Had plenty of room for family of 5. If i had known there was a kitchen in the room we would of had pizza.  Breakfast was alright and free.  Breakfast area is set up for couples so tables need to be pushed together for larger families.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r189606127-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>189606127</t>
+  </si>
+  <si>
+    <t>01/04/2014</t>
+  </si>
+  <si>
+    <t>very nice place</t>
+  </si>
+  <si>
+    <t>Hotel was well maintained. Reservation was wrong, but was fixed immediately. No full breakfast like stated, just a continental one with very little opitions. Great beds &amp; very quiet. Would stay again!</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r189118938-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>189118938</t>
+  </si>
+  <si>
+    <t>12/31/2013</t>
+  </si>
+  <si>
+    <t>Great get away stay</t>
+  </si>
+  <si>
+    <t>super clean, great rooms and most of all the beds were perfect, i even asked my husband if he would buy me one when we got home. the people there are so sweet and front desk ladys are outstanding and that made our 4 nights stay even better.I loved having 2 flat screens so i could lay in bed and watch my shows while my husband watched the game in the living room, best place ever, we will be back. thank you Towneplace Suites you guys are amazing!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded July 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2014</t>
+  </si>
+  <si>
+    <t>super clean, great rooms and most of all the beds were perfect, i even asked my husband if he would buy me one when we got home. the people there are so sweet and front desk ladys are outstanding and that made our 4 nights stay even better.I loved having 2 flat screens so i could lay in bed and watch my shows while my husband watched the game in the living room, best place ever, we will be back. thank you Towneplace Suites you guys are amazing!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r181238339-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>181238339</t>
+  </si>
+  <si>
+    <t>10/16/2013</t>
+  </si>
+  <si>
+    <t>If you are in Clute, this is a great place to hang your hat!</t>
+  </si>
+  <si>
+    <t>This hotel is so friendly and accommodating to the traveler.  We have stayed here twice within 3 months, and the staff has been outstanding both visits. The front desk / concierge staff is knowledgeable and trained to serve (which isn't as common as you think it should be!).  On this visit, I believe I talked with Victoria, and she was friendly and welcoming.   The roomy are very clean.  The kitchen and living area help to make you feel comfortable.  Plenty of hot water for showers.  Beds are very comfortable and inviting.  And... save the best for last, the outdoor pool is clean and the water is not too cold!  it is great!  The outdoor patio area and landscaping is kept very clean and beautiful.  There is even a grill for guests' use!   And - here's a shout out for Victor, who notices what's needed and helps the guests - even when I am pretty sure it's not in his job description.   Overall, GREAT place to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>This hotel is so friendly and accommodating to the traveler.  We have stayed here twice within 3 months, and the staff has been outstanding both visits. The front desk / concierge staff is knowledgeable and trained to serve (which isn't as common as you think it should be!).  On this visit, I believe I talked with Victoria, and she was friendly and welcoming.   The roomy are very clean.  The kitchen and living area help to make you feel comfortable.  Plenty of hot water for showers.  Beds are very comfortable and inviting.  And... save the best for last, the outdoor pool is clean and the water is not too cold!  it is great!  The outdoor patio area and landscaping is kept very clean and beautiful.  There is even a grill for guests' use!   And - here's a shout out for Victor, who notices what's needed and helps the guests - even when I am pretty sure it's not in his job description.   Overall, GREAT place to stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r170172455-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>170172455</t>
+  </si>
+  <si>
+    <t>07/31/2013</t>
+  </si>
+  <si>
+    <t>Outstanding Job</t>
+  </si>
+  <si>
+    <t>Not only was this hotel clean, every employee said hello.  That comes from great management training. No matter how big or small you are, customer service can make or break your business.  This hotel got it Right!!! Maint was cleaning every morning, even the parking lot.  Pool and outside patio was clean and landscaped.  Left a shirt at the pool the night before and maint cleaning the pool had left it at the front desk for me.  Nice little fitness room.  Highly recommend this hotel.  Thank youMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Phil H, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded August 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2013</t>
+  </si>
+  <si>
+    <t>Not only was this hotel clean, every employee said hello.  That comes from great management training. No matter how big or small you are, customer service can make or break your business.  This hotel got it Right!!! Maint was cleaning every morning, even the parking lot.  Pool and outside patio was clean and landscaped.  Left a shirt at the pool the night before and maint cleaning the pool had left it at the front desk for me.  Nice little fitness room.  Highly recommend this hotel.  Thank youMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r169496431-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>169496431</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>Could Not Have Been Any Better</t>
+  </si>
+  <si>
+    <t>My family of six and I would like to take this opportunity to thank Nicole, Ashley, Brittney, Tisha from housekeeping and all the weekend staff at Town Place Suites for a great three day weekend. I don't make a habit of rating hotels (not sure I ever have before) but I feel I must in this instance because of our experience July 27, 28 and 29th.Don't buy the three stars average because this a five star establishment, and yes I have stayed in five star hotels.
+ I know this hotel has been around for a whlle, but it looks and feels brand new. The rooms are as clean as I have ever seen a hotel room and it does not stop with the rooms. Everything looks and feels new. We really enjoyed the breakfast each morning and the staff could not have been more friendly and responsive. They all went out of their way to make our stay enjoyable. Thanks to all of you. We will surely be back again! 
+The only negative thing I have to say (you knew it was coming) has nothing to do with the hotel. This was the weekend of the annual mosquito festival. We got to the gate and they wanted more than $75.00 just to let us on the property. They need to hire a marketing consultant that will explain to them that the idea is to get people inside and then let...My family of six and I would like to take this opportunity to thank Nicole, Ashley, Brittney, Tisha from housekeeping and all the weekend staff at Town Place Suites for a great three day weekend. I don't make a habit of rating hotels (not sure I ever have before) but I feel I must in this instance because of our experience July 27, 28 and 29th.Don't buy the three stars average because this a five star establishment, and yes I have stayed in five star hotels. I know this hotel has been around for a whlle, but it looks and feels brand new. The rooms are as clean as I have ever seen a hotel room and it does not stop with the rooms. Everything looks and feels new. We really enjoyed the breakfast each morning and the staff could not have been more friendly and responsive. They all went out of their way to make our stay enjoyable. Thanks to all of you. We will surely be back again! The only negative thing I have to say (you knew it was coming) has nothing to do with the hotel. This was the weekend of the annual mosquito festival. We got to the gate and they wanted more than $75.00 just to let us on the property. They need to hire a marketing consultant that will explain to them that the idea is to get people inside and then let them spend their hard earned money. How many people from this area are even able to enjoy this festival??. On another note, Surfside Beach was great!  Thanks again to the great staff at TownPlace Suites for a great weekend.Ken Y and familyMoreShow less</t>
+  </si>
+  <si>
+    <t>Phil H, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded July 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2013</t>
+  </si>
+  <si>
+    <t>My family of six and I would like to take this opportunity to thank Nicole, Ashley, Brittney, Tisha from housekeeping and all the weekend staff at Town Place Suites for a great three day weekend. I don't make a habit of rating hotels (not sure I ever have before) but I feel I must in this instance because of our experience July 27, 28 and 29th.Don't buy the three stars average because this a five star establishment, and yes I have stayed in five star hotels.
+ I know this hotel has been around for a whlle, but it looks and feels brand new. The rooms are as clean as I have ever seen a hotel room and it does not stop with the rooms. Everything looks and feels new. We really enjoyed the breakfast each morning and the staff could not have been more friendly and responsive. They all went out of their way to make our stay enjoyable. Thanks to all of you. We will surely be back again! 
+The only negative thing I have to say (you knew it was coming) has nothing to do with the hotel. This was the weekend of the annual mosquito festival. We got to the gate and they wanted more than $75.00 just to let us on the property. They need to hire a marketing consultant that will explain to them that the idea is to get people inside and then let...My family of six and I would like to take this opportunity to thank Nicole, Ashley, Brittney, Tisha from housekeeping and all the weekend staff at Town Place Suites for a great three day weekend. I don't make a habit of rating hotels (not sure I ever have before) but I feel I must in this instance because of our experience July 27, 28 and 29th.Don't buy the three stars average because this a five star establishment, and yes I have stayed in five star hotels. I know this hotel has been around for a whlle, but it looks and feels brand new. The rooms are as clean as I have ever seen a hotel room and it does not stop with the rooms. Everything looks and feels new. We really enjoyed the breakfast each morning and the staff could not have been more friendly and responsive. They all went out of their way to make our stay enjoyable. Thanks to all of you. We will surely be back again! The only negative thing I have to say (you knew it was coming) has nothing to do with the hotel. This was the weekend of the annual mosquito festival. We got to the gate and they wanted more than $75.00 just to let us on the property. They need to hire a marketing consultant that will explain to them that the idea is to get people inside and then let them spend their hard earned money. How many people from this area are even able to enjoy this festival??. On another note, Surfside Beach was great!  Thanks again to the great staff at TownPlace Suites for a great weekend.Ken Y and familyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r169158948-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>169158948</t>
+  </si>
+  <si>
+    <t>07/26/2013</t>
+  </si>
+  <si>
+    <t>way to go</t>
+  </si>
+  <si>
+    <t>amazing clean very niece staff i was outside checking my oil on my truck Mr. Henry was outside working he stop to help me check the dip stick he even checked the brake fluid told me it was low way to go henry!!!!!! i will be back my son just started working at one of the plants here in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Phil H, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded July 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2013</t>
+  </si>
+  <si>
+    <t>amazing clean very niece staff i was outside checking my oil on my truck Mr. Henry was outside working he stop to help me check the dip stick he even checked the brake fluid told me it was low way to go henry!!!!!! i will be back my son just started working at one of the plants here in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r167720234-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>167720234</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>GREAT VALUE!</t>
+  </si>
+  <si>
+    <t>This hotel was a great value for the price, the front desk staff were very accommodating, and all of the staff we encountered were friendly and really seemed to enjoy their job!  Also, it was only 6 miles from Surfside Beach.  I would definitely stay here again, the drive along the coastline to Galveston was phenomenal and the beach area was great!MoreShow less</t>
+  </si>
+  <si>
+    <t>TownePlace Suit... L, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded July 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2013</t>
+  </si>
+  <si>
+    <t>This hotel was a great value for the price, the front desk staff were very accommodating, and all of the staff we encountered were friendly and really seemed to enjoy their job!  Also, it was only 6 miles from Surfside Beach.  I would definitely stay here again, the drive along the coastline to Galveston was phenomenal and the beach area was great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r166666113-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>166666113</t>
+  </si>
+  <si>
+    <t>07/07/2013</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>We decided last min at 9pm July 5th to go to the beach and needed a place to stay.  Found Towneplace on Kayak on our way to Freeport.  The person on the phone was very helpful and courteous and got us booked over the phone with no problems.  We didn't read reviews or look into it, we just needed a place to stay.  Needless to say this place is awesome.  Our room had a kitchen, full size fridge and all the kitchen hardware you could need.  The bed was super comfortable and the AC worked great.  The bathroom (and the rest of the place) was very clean and well kept.  It's about a 10 min drive to the beach from the hotel so it worked out perfectly.  Breakfast was also provided, it was pretty standard hotel breakfast.  We didn't use the pool so I cant comment on that.  I would certainly recommend this hotel for a weekend getaway.cheers, chrisMoreShow less</t>
+  </si>
+  <si>
+    <t>Phil H, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded July 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2013</t>
+  </si>
+  <si>
+    <t>We decided last min at 9pm July 5th to go to the beach and needed a place to stay.  Found Towneplace on Kayak on our way to Freeport.  The person on the phone was very helpful and courteous and got us booked over the phone with no problems.  We didn't read reviews or look into it, we just needed a place to stay.  Needless to say this place is awesome.  Our room had a kitchen, full size fridge and all the kitchen hardware you could need.  The bed was super comfortable and the AC worked great.  The bathroom (and the rest of the place) was very clean and well kept.  It's about a 10 min drive to the beach from the hotel so it worked out perfectly.  Breakfast was also provided, it was pretty standard hotel breakfast.  We didn't use the pool so I cant comment on that.  I would certainly recommend this hotel for a weekend getaway.cheers, chrisMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r162921266-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>162921266</t>
+  </si>
+  <si>
+    <t>06/03/2013</t>
+  </si>
+  <si>
+    <t>Family Mini Vacation</t>
+  </si>
+  <si>
+    <t>My son was getting married on June 1, 2013  at Surfside Beach so we had 5 rooms booked with some of our family. The room was spotless, the beds were even better than mine at home, and the service was incredible. Every single person that worked there from the front desk to the housekeepers went out of their way to make our stay enjoyable and to make sure that we were comfortable. Hands down, this is one of the best hotels that we have stayed at over the years and we will definitely be staying there again. Thank you for your kindness and for making our family feel like we were the only ones that were staying there. Wow, what else could you possibly ask for??MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>My son was getting married on June 1, 2013  at Surfside Beach so we had 5 rooms booked with some of our family. The room was spotless, the beds were even better than mine at home, and the service was incredible. Every single person that worked there from the front desk to the housekeepers went out of their way to make our stay enjoyable and to make sure that we were comfortable. Hands down, this is one of the best hotels that we have stayed at over the years and we will definitely be staying there again. Thank you for your kindness and for making our family feel like we were the only ones that were staying there. Wow, what else could you possibly ask for??More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r160605558-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>160605558</t>
+  </si>
+  <si>
+    <t>05/13/2013</t>
+  </si>
+  <si>
+    <t>Great stay and Great Service</t>
+  </si>
+  <si>
+    <t>I stayed at the TownPlace Suites in Clute for a week while traveling for business and I really enjoyed my stay. Front desk agents were very attentive and helpful. I slept better than I had for months and the breakfast really hit the spot.I very highly recommend staying here when in the Lake Jackson area.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1658,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1690,2868 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>114</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" t="s">
+        <v>124</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>125</v>
+      </c>
+      <c r="X10" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" t="s">
+        <v>124</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>134</v>
+      </c>
+      <c r="X11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>142</v>
+      </c>
+      <c r="X12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>150</v>
+      </c>
+      <c r="O13" t="s">
+        <v>124</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>151</v>
+      </c>
+      <c r="X13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>159</v>
+      </c>
+      <c r="O14" t="s">
+        <v>124</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>160</v>
+      </c>
+      <c r="X14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15" t="s">
+        <v>167</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O15" t="s">
+        <v>124</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>168</v>
+      </c>
+      <c r="X15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" t="s">
+        <v>175</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>159</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>176</v>
+      </c>
+      <c r="X16" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" t="s">
+        <v>182</v>
+      </c>
+      <c r="L17" t="s">
+        <v>183</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>184</v>
+      </c>
+      <c r="O17" t="s">
+        <v>124</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>185</v>
+      </c>
+      <c r="X17" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>193</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>194</v>
+      </c>
+      <c r="X18" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>198</v>
+      </c>
+      <c r="J19" t="s">
+        <v>199</v>
+      </c>
+      <c r="K19" t="s">
+        <v>200</v>
+      </c>
+      <c r="L19" t="s">
+        <v>201</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>202</v>
+      </c>
+      <c r="O19" t="s">
+        <v>124</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>203</v>
+      </c>
+      <c r="X19" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>207</v>
+      </c>
+      <c r="J20" t="s">
+        <v>208</v>
+      </c>
+      <c r="K20" t="s">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s">
+        <v>210</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>211</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>212</v>
+      </c>
+      <c r="X20" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>215</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>216</v>
+      </c>
+      <c r="J21" t="s">
+        <v>217</v>
+      </c>
+      <c r="K21" t="s">
+        <v>218</v>
+      </c>
+      <c r="L21" t="s">
+        <v>219</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>211</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>220</v>
+      </c>
+      <c r="X21" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>223</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>224</v>
+      </c>
+      <c r="J22" t="s">
+        <v>225</v>
+      </c>
+      <c r="K22" t="s">
+        <v>226</v>
+      </c>
+      <c r="L22" t="s">
+        <v>227</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>211</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>228</v>
+      </c>
+      <c r="X22" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>231</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>232</v>
+      </c>
+      <c r="J23" t="s">
+        <v>233</v>
+      </c>
+      <c r="K23" t="s">
+        <v>234</v>
+      </c>
+      <c r="L23" t="s">
+        <v>235</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>236</v>
+      </c>
+      <c r="O23" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>237</v>
+      </c>
+      <c r="X23" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>241</v>
+      </c>
+      <c r="J24" t="s">
+        <v>242</v>
+      </c>
+      <c r="K24" t="s">
+        <v>243</v>
+      </c>
+      <c r="L24" t="s">
+        <v>244</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>236</v>
+      </c>
+      <c r="O24" t="s">
+        <v>124</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>245</v>
+      </c>
+      <c r="X24" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>248</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>249</v>
+      </c>
+      <c r="J25" t="s">
+        <v>250</v>
+      </c>
+      <c r="K25" t="s">
+        <v>251</v>
+      </c>
+      <c r="L25" t="s">
+        <v>252</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>253</v>
+      </c>
+      <c r="O25" t="s">
+        <v>124</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>254</v>
+      </c>
+      <c r="X25" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>257</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>258</v>
+      </c>
+      <c r="J26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K26" t="s">
+        <v>260</v>
+      </c>
+      <c r="L26" t="s">
+        <v>261</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>262</v>
+      </c>
+      <c r="O26" t="s">
+        <v>124</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>263</v>
+      </c>
+      <c r="X26" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>266</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>267</v>
+      </c>
+      <c r="J27" t="s">
+        <v>268</v>
+      </c>
+      <c r="K27" t="s">
+        <v>269</v>
+      </c>
+      <c r="L27" t="s">
+        <v>270</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>271</v>
+      </c>
+      <c r="O27" t="s">
+        <v>272</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>273</v>
+      </c>
+      <c r="X27" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>276</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>277</v>
+      </c>
+      <c r="J28" t="s">
+        <v>278</v>
+      </c>
+      <c r="K28" t="s">
+        <v>279</v>
+      </c>
+      <c r="L28" t="s">
+        <v>280</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>281</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>282</v>
+      </c>
+      <c r="X28" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>285</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>286</v>
+      </c>
+      <c r="J29" t="s">
+        <v>287</v>
+      </c>
+      <c r="K29" t="s">
+        <v>288</v>
+      </c>
+      <c r="L29" t="s">
+        <v>289</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>290</v>
+      </c>
+      <c r="O29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>291</v>
+      </c>
+      <c r="X29" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>294</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>295</v>
+      </c>
+      <c r="J30" t="s">
+        <v>296</v>
+      </c>
+      <c r="K30" t="s">
+        <v>297</v>
+      </c>
+      <c r="L30" t="s">
+        <v>298</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>299</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>300</v>
+      </c>
+      <c r="X30" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>303</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>304</v>
+      </c>
+      <c r="J31" t="s">
+        <v>305</v>
+      </c>
+      <c r="K31" t="s">
+        <v>306</v>
+      </c>
+      <c r="L31" t="s">
+        <v>307</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>290</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>308</v>
+      </c>
+      <c r="X31" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>311</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>312</v>
+      </c>
+      <c r="J32" t="s">
+        <v>313</v>
+      </c>
+      <c r="K32" t="s">
+        <v>314</v>
+      </c>
+      <c r="L32" t="s">
+        <v>315</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>316</v>
+      </c>
+      <c r="X32" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>319</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>320</v>
+      </c>
+      <c r="J33" t="s">
+        <v>321</v>
+      </c>
+      <c r="K33" t="s">
+        <v>322</v>
+      </c>
+      <c r="L33" t="s">
+        <v>323</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>324</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>325</v>
+      </c>
+      <c r="X33" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>328</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>329</v>
+      </c>
+      <c r="J34" t="s">
+        <v>330</v>
+      </c>
+      <c r="K34" t="s">
+        <v>331</v>
+      </c>
+      <c r="L34" t="s">
+        <v>332</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>324</v>
+      </c>
+      <c r="O34" t="s">
+        <v>124</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>325</v>
+      </c>
+      <c r="X34" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>334</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>335</v>
+      </c>
+      <c r="J35" t="s">
+        <v>336</v>
+      </c>
+      <c r="K35" t="s">
+        <v>337</v>
+      </c>
+      <c r="L35" t="s">
+        <v>338</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>339</v>
+      </c>
+      <c r="O35" t="s">
+        <v>124</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>340</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>341</v>
+      </c>
+      <c r="J36" t="s">
+        <v>342</v>
+      </c>
+      <c r="K36" t="s">
+        <v>343</v>
+      </c>
+      <c r="L36" t="s">
+        <v>344</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>339</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>345</v>
+      </c>
+      <c r="X36" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>348</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>349</v>
+      </c>
+      <c r="J37" t="s">
+        <v>350</v>
+      </c>
+      <c r="K37" t="s">
+        <v>351</v>
+      </c>
+      <c r="L37" t="s">
+        <v>352</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>353</v>
+      </c>
+      <c r="O37" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>355</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>356</v>
+      </c>
+      <c r="J38" t="s">
+        <v>357</v>
+      </c>
+      <c r="K38" t="s">
+        <v>358</v>
+      </c>
+      <c r="L38" t="s">
+        <v>359</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>360</v>
+      </c>
+      <c r="O38" t="s">
+        <v>124</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>361</v>
+      </c>
+      <c r="X38" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>364</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>365</v>
+      </c>
+      <c r="J39" t="s">
+        <v>366</v>
+      </c>
+      <c r="K39" t="s">
+        <v>367</v>
+      </c>
+      <c r="L39" t="s">
+        <v>368</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>360</v>
+      </c>
+      <c r="O39" t="s">
+        <v>124</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>369</v>
+      </c>
+      <c r="X39" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>372</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>373</v>
+      </c>
+      <c r="J40" t="s">
+        <v>374</v>
+      </c>
+      <c r="K40" t="s">
+        <v>375</v>
+      </c>
+      <c r="L40" t="s">
+        <v>376</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>360</v>
+      </c>
+      <c r="O40" t="s">
+        <v>124</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>377</v>
+      </c>
+      <c r="X40" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>380</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>381</v>
+      </c>
+      <c r="J41" t="s">
+        <v>382</v>
+      </c>
+      <c r="K41" t="s">
+        <v>383</v>
+      </c>
+      <c r="L41" t="s">
+        <v>384</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>360</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>385</v>
+      </c>
+      <c r="X41" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>388</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>389</v>
+      </c>
+      <c r="J42" t="s">
+        <v>390</v>
+      </c>
+      <c r="K42" t="s">
+        <v>391</v>
+      </c>
+      <c r="L42" t="s">
+        <v>392</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>360</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>393</v>
+      </c>
+      <c r="X42" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>396</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>397</v>
+      </c>
+      <c r="J43" t="s">
+        <v>398</v>
+      </c>
+      <c r="K43" t="s">
+        <v>399</v>
+      </c>
+      <c r="L43" t="s">
+        <v>400</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>401</v>
+      </c>
+      <c r="O43" t="s">
+        <v>124</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>403</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>404</v>
+      </c>
+      <c r="J44" t="s">
+        <v>405</v>
+      </c>
+      <c r="K44" t="s">
+        <v>406</v>
+      </c>
+      <c r="L44" t="s">
+        <v>407</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>408</v>
+      </c>
+      <c r="O44" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_664.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_664.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="654">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,93 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r612429129-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>55643</t>
+  </si>
+  <si>
+    <t>225736</t>
+  </si>
+  <si>
+    <t>612429129</t>
+  </si>
+  <si>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Staff was great! Ms. Bee was a great breakfast lady very sweet. Lou Anna was real sweet helping me with my baby during check in and through out the stay.  Only thing was a loud family was next to us and it was hard to get to bed at a normal bedtime. Pool and patio was great for the kids. Only complaint was black pandy smelt like marijuana.  Would recommend to anyoneMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Barbara E, General Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Staff was great! Ms. Bee was a great breakfast lady very sweet. Lou Anna was real sweet helping me with my baby during check in and through out the stay.  Only thing was a loud family was next to us and it was hard to get to bed at a normal bedtime. Pool and patio was great for the kids. Only complaint was black pandy smelt like marijuana.  Would recommend to anyoneMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r605679421-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>605679421</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>Nice rooms and pool.</t>
+  </si>
+  <si>
+    <t>The hotel is in a good location in Clute. It front desk is friendly and do a great job. The room we had was in the new section. The room was clean. The pool was very clean and well cared for. The only thing was the breakfast could have had better selection for hot items.MoreShow less</t>
+  </si>
+  <si>
+    <t>Barbara E, General Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>The hotel is in a good location in Clute. It front desk is friendly and do a great job. The room we had was in the new section. The room was clean. The pool was very clean and well cared for. The only thing was the breakfast could have had better selection for hot items.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r601433934-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>601433934</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spacious Rooms and Great Hospitality </t>
+  </si>
+  <si>
+    <t>We stayed here while in town for a wedding. The thing that stood out the most was the hospitality provided by Pandy at the front desk. She was kind and went out of her way to make sure our stay was fantastic. Every hotel needs an employee like this. We stayed in a room that had 2 bedrooms with a total of 4 beds. This was much larger than we had expected. The bedrooms also had ceiling fans which we appreciated. The hotel itself is a little older but that didn’t affect our stay. The breakfast area is small and on Saturday morning they could not keep up with the demand. We would definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>We stayed here while in town for a wedding. The thing that stood out the most was the hospitality provided by Pandy at the front desk. She was kind and went out of her way to make sure our stay was fantastic. Every hotel needs an employee like this. We stayed in a room that had 2 bedrooms with a total of 4 beds. This was much larger than we had expected. The bedrooms also had ceiling fans which we appreciated. The hotel itself is a little older but that didn’t affect our stay. The breakfast area is small and on Saturday morning they could not keep up with the demand. We would definitely stay here again. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r592234148-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
   </si>
   <si>
-    <t>55643</t>
-  </si>
-  <si>
-    <t>225736</t>
-  </si>
-  <si>
     <t>592234148</t>
   </si>
   <si>
@@ -243,6 +318,60 @@
     <t>The Staff was extremely nice.  However, the hotel overbooked and did not have a room for my co-worker even though the room was confirmed on the Marriott app.  We moved to a different hotel.  Very disappointed and will no longer stay at this hotel.  There is a Hampton Inn next door which I will use.  DisappointedMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r571783744-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>571783744</t>
+  </si>
+  <si>
+    <t>04/07/2018</t>
+  </si>
+  <si>
+    <t>All great</t>
+  </si>
+  <si>
+    <t>We stayed here with my wife last weekend. First of all I can't express how great everybdoy treated me during my stay. All smiling and appreciative. I felt really welcomed. Room was superbly clean and breakfast was neat. They even added my requested pillows before I arrived. Loved place. Special thanks to Front Desk Barbara for accomadating our requests.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Barbara E, General Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded April 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here with my wife last weekend. First of all I can't express how great everybdoy treated me during my stay. All smiling and appreciative. I felt really welcomed. Room was superbly clean and breakfast was neat. They even added my requested pillows before I arrived. Loved place. Special thanks to Front Desk Barbara for accomadating our requests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r558181117-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>558181117</t>
+  </si>
+  <si>
+    <t>02/03/2018</t>
+  </si>
+  <si>
+    <t>Beautiful rooms, great staff</t>
+  </si>
+  <si>
+    <t>This hotel has everything. Beautiful large, clean suites for the extended stay visit, with beautiful decor, full kitchen, nice sized bathroom, 2 TVs and two closets. Of course Marriott has the Market and anything else you might need, even a blender!  The staff is very friendly and accommodating. We really enjoyed our visit. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Barbara E, General Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded February 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2018</t>
+  </si>
+  <si>
+    <t>This hotel has everything. Beautiful large, clean suites for the extended stay visit, with beautiful decor, full kitchen, nice sized bathroom, 2 TVs and two closets. Of course Marriott has the Market and anything else you might need, even a blender!  The staff is very friendly and accommodating. We really enjoyed our visit. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r536273415-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
   </si>
   <si>
@@ -321,6 +450,57 @@
     <t>rooms are horrible. there lots of mold in the bathroom and not very clean. rooms are also very small and a/c smells. the position of the tv is very odd, its to the left of the bed and i couldnt find a great view to watch even from the furniture, hurts my neck. felt like staying in a trailer. me and my company wont be back.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r489727001-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>489727001</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>Do yourself a favor and find another hotel</t>
+  </si>
+  <si>
+    <t>I was not impressed by the service nor the cleanliness of this hotel. I arrived yesterday for a quick 2 day trip. I was given the tiniest "suite" I have ever seen! I asked if there was anything larger and was told that was the standard size room on the new wing. I believed them and let it pass. In the morning I find 2 lovely little roaches walking about. I snapped a pic of one, the other got away! GROSS! I told the service clerk downstairs and she said she would get someone to spray the room. No apology.. nothing! As if this was an everyday occurence. I get switched that evening to another room in the same wing per my request, and guess what... the room is alot larger than the fun size room I had yesterday. Service here is really bad! I love Marriott Hotels, but this does not uphold marriott standards!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded June 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2017</t>
+  </si>
+  <si>
+    <t>I was not impressed by the service nor the cleanliness of this hotel. I arrived yesterday for a quick 2 day trip. I was given the tiniest "suite" I have ever seen! I asked if there was anything larger and was told that was the standard size room on the new wing. I believed them and let it pass. In the morning I find 2 lovely little roaches walking about. I snapped a pic of one, the other got away! GROSS! I told the service clerk downstairs and she said she would get someone to spray the room. No apology.. nothing! As if this was an everyday occurence. I get switched that evening to another room in the same wing per my request, and guess what... the room is alot larger than the fun size room I had yesterday. Service here is really bad! I love Marriott Hotels, but this does not uphold marriott standards!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r480177379-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>480177379</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>Felt like family, wonderful experience</t>
+  </si>
+  <si>
+    <t>So we decided last minute to get a hotel room for the night after the power company had been working on restoring our power for 12 hours and still had no estimate of restoration. The front desk greeted us with sincere smiles and were completely welcoming of us and our dog at 9:30 pm. The room was very clean and the shower was amazing. Kitchen was fully stocked with everything you need to cook a meal. The breakfast was good! I had seen several reviews complaining about the breakfast but we found it to be one of the better complementary buffets we have encountered. Lots of healthy options and standard breakfast items. Fitness center is small but has everything you need for a good workout. Staff is outstanding. Outstanding. The staff are truly the jewels of this hotel and management should keep this staff happy because they go out of their way to keep the guests happy. Great room, great facilities, great breakfast, great staff. Can go wrong.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Barbara E, General Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2017</t>
+  </si>
+  <si>
+    <t>So we decided last minute to get a hotel room for the night after the power company had been working on restoring our power for 12 hours and still had no estimate of restoration. The front desk greeted us with sincere smiles and were completely welcoming of us and our dog at 9:30 pm. The room was very clean and the shower was amazing. Kitchen was fully stocked with everything you need to cook a meal. The breakfast was good! I had seen several reviews complaining about the breakfast but we found it to be one of the better complementary buffets we have encountered. Lots of healthy options and standard breakfast items. Fitness center is small but has everything you need for a good workout. Staff is outstanding. Outstanding. The staff are truly the jewels of this hotel and management should keep this staff happy because they go out of their way to keep the guests happy. Great room, great facilities, great breakfast, great staff. Can go wrong.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r478527301-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
   </si>
   <si>
@@ -390,9 +570,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Barbara E, General Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded March 11, 2017</t>
   </si>
   <si>
@@ -402,6 +579,63 @@
     <t>we had reservations and got in late. We unloaded our car and checked in. We later found out later at the elevator was broken. I guess the young lady at the desk was going to surprise us. My wife with bad knees had to walk up stairs to get to the room carrying luggage. We come to this area often and will go back to the holiday in express.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r464778345-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>464778345</t>
+  </si>
+  <si>
+    <t>03/05/2017</t>
+  </si>
+  <si>
+    <t>Nice comfortable hotel</t>
+  </si>
+  <si>
+    <t>Very nice room with good features including comfortable bed, pillows, tv, wifi. Enjoyed very much.Breakfast bar prepared items are not good. Best to make your own waffles, yogurt, fruit. Cream cheese is frozen so you need to thaw it out in microwave. Nice toppings for prepared oatmeal.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Barbara E, General Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded March 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2017</t>
+  </si>
+  <si>
+    <t>Very nice room with good features including comfortable bed, pillows, tv, wifi. Enjoyed very much.Breakfast bar prepared items are not good. Best to make your own waffles, yogurt, fruit. Cream cheese is frozen so you need to thaw it out in microwave. Nice toppings for prepared oatmeal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r428120478-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>428120478</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t>3 Girls and a Dog</t>
+  </si>
+  <si>
+    <t>We spent the night at TownPlace Suites on our way from Dallas to Sargent for a quick weekend trip.   This hotel is dog friendly but there is an additional fee.   We stayed in a suite with 2 Queens and a sleeper sofa.   It has a mini kitchen with stove, microwave and fridge and included a Hot Breakfast is included -  Texas shaped waffles anyone? : ).   There is some remodeling going on but it wasn't noticeable to us at all.   The desk staff (Bee) was very friendly and accommodating.   We'll would stay here again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Ashley B, Operations Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded October 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2016</t>
+  </si>
+  <si>
+    <t>We spent the night at TownPlace Suites on our way from Dallas to Sargent for a quick weekend trip.   This hotel is dog friendly but there is an additional fee.   We stayed in a suite with 2 Queens and a sleeper sofa.   It has a mini kitchen with stove, microwave and fridge and included a Hot Breakfast is included -  Texas shaped waffles anyone? : ).   There is some remodeling going on but it wasn't noticeable to us at all.   The desk staff (Bee) was very friendly and accommodating.   We'll would stay here again.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r423350447-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
   </si>
   <si>
@@ -478,6 +712,57 @@
   </si>
   <si>
     <t>Very friendly staff. Very helpful. Room wasn't ready when we arrived but they offered some goodies while we waited. Room was very clean and beds very comfortable. We had a 2 bedroom suite that plenty of room for the 7 of us. Breakfast was fair, nothing to write home about but it was nice not to have to worry about a morning meal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r391159756-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>391159756</t>
+  </si>
+  <si>
+    <t>07/10/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great choice. </t>
+  </si>
+  <si>
+    <t>Comfortable and quite room with all the amenities you could ask for. Very friendly staff and full breakfast. So close to all the restaurants you could want or need. Live the Shipley's donuts just a traffic signal north. We will stay again hopefully very soon as we love Surfside Beach!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Barbara E, General Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded July 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2016</t>
+  </si>
+  <si>
+    <t>Comfortable and quite room with all the amenities you could ask for. Very friendly staff and full breakfast. So close to all the restaurants you could want or need. Live the Shipley's donuts just a traffic signal north. We will stay again hopefully very soon as we love Surfside Beach!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r389770248-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>389770248</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>Horrible Housekeeping!!</t>
+  </si>
+  <si>
+    <t>We recently stayed there over July 4th weekend, 2016, to visit family. The staff was always friendly &amp; overall stay was nice but the housekeeping was horrible!! We stayed a total of 4 nights. The 1st night we were there our toilet backed up &amp; was leaking water onto the floor. They got someone there quickly to fix it but they never picked up the wet towels we put down to soak the water up with. They just left them on the restroom floor. The 2nd day we were there I was laying in bed (awake) with my husband when all of a sudden our door opens &amp; a light gets turned on. I jumped out of bed &amp; it was housekeeping who had already turned the light back off &amp; closed the door. They never knocked. I guess they saw our kids still asleep in the living area &amp; quickly left. Then the 3rd day we were there, housekeeping knocked this time but my kids were still eating breakfast &amp; I asked if they would mind coming back later. They said they would check back later. My family &amp; I had left for the day &amp; when we came back that evening we noticed that housekeeping indeed came because the beds were made &amp; we had new towels, BUT, all our dirty towels that were on the floor were just hung back up on the back of the restroom...We recently stayed there over July 4th weekend, 2016, to visit family. The staff was always friendly &amp; overall stay was nice but the housekeeping was horrible!! We stayed a total of 4 nights. The 1st night we were there our toilet backed up &amp; was leaking water onto the floor. They got someone there quickly to fix it but they never picked up the wet towels we put down to soak the water up with. They just left them on the restroom floor. The 2nd day we were there I was laying in bed (awake) with my husband when all of a sudden our door opens &amp; a light gets turned on. I jumped out of bed &amp; it was housekeeping who had already turned the light back off &amp; closed the door. They never knocked. I guess they saw our kids still asleep in the living area &amp; quickly left. Then the 3rd day we were there, housekeeping knocked this time but my kids were still eating breakfast &amp; I asked if they would mind coming back later. They said they would check back later. My family &amp; I had left for the day &amp; when we came back that evening we noticed that housekeeping indeed came because the beds were made &amp; we had new towels, BUT, all our dirty towels that were on the floor were just hung back up on the back of the restroom door (still covered in sand), the trash (which was full) was not taken out, and they left us no toilet paper which we didn't realize until the next morning when my family had to wipe with the Kleenex from the restroom. I was so ready to leave. We've stayed at much lower grade hotels before where the housekeeping was exceptional. I'm not sure if this staff just needs new training or what. I wouldn't mind staying here again but only if the housekeeping issue can get resolved. As a rewards member, I expected more from Marriott.MoreShow less</t>
+  </si>
+  <si>
+    <t>Barbara E, General Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2016</t>
+  </si>
+  <si>
+    <t>We recently stayed there over July 4th weekend, 2016, to visit family. The staff was always friendly &amp; overall stay was nice but the housekeeping was horrible!! We stayed a total of 4 nights. The 1st night we were there our toilet backed up &amp; was leaking water onto the floor. They got someone there quickly to fix it but they never picked up the wet towels we put down to soak the water up with. They just left them on the restroom floor. The 2nd day we were there I was laying in bed (awake) with my husband when all of a sudden our door opens &amp; a light gets turned on. I jumped out of bed &amp; it was housekeeping who had already turned the light back off &amp; closed the door. They never knocked. I guess they saw our kids still asleep in the living area &amp; quickly left. Then the 3rd day we were there, housekeeping knocked this time but my kids were still eating breakfast &amp; I asked if they would mind coming back later. They said they would check back later. My family &amp; I had left for the day &amp; when we came back that evening we noticed that housekeeping indeed came because the beds were made &amp; we had new towels, BUT, all our dirty towels that were on the floor were just hung back up on the back of the restroom...We recently stayed there over July 4th weekend, 2016, to visit family. The staff was always friendly &amp; overall stay was nice but the housekeeping was horrible!! We stayed a total of 4 nights. The 1st night we were there our toilet backed up &amp; was leaking water onto the floor. They got someone there quickly to fix it but they never picked up the wet towels we put down to soak the water up with. They just left them on the restroom floor. The 2nd day we were there I was laying in bed (awake) with my husband when all of a sudden our door opens &amp; a light gets turned on. I jumped out of bed &amp; it was housekeeping who had already turned the light back off &amp; closed the door. They never knocked. I guess they saw our kids still asleep in the living area &amp; quickly left. Then the 3rd day we were there, housekeeping knocked this time but my kids were still eating breakfast &amp; I asked if they would mind coming back later. They said they would check back later. My family &amp; I had left for the day &amp; when we came back that evening we noticed that housekeeping indeed came because the beds were made &amp; we had new towels, BUT, all our dirty towels that were on the floor were just hung back up on the back of the restroom door (still covered in sand), the trash (which was full) was not taken out, and they left us no toilet paper which we didn't realize until the next morning when my family had to wipe with the Kleenex from the restroom. I was so ready to leave. We've stayed at much lower grade hotels before where the housekeeping was exceptional. I'm not sure if this staff just needs new training or what. I wouldn't mind staying here again but only if the housekeeping issue can get resolved. As a rewards member, I expected more from Marriott.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r378472283-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
@@ -563,6 +848,53 @@
     <t>We were supposed to stay here for about a month while working in the area, but the job was postponed and we only stayed for one night. I contacted the hotel several times for different reasons prior to our stay, and every one I spoke to was very helpful and friendly. Our suite was clean and would be nice for an extended stay. The only drawback was that there's only a stovetop and no oven, but that's not a big deal.  We would definitely stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r377138374-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>377138374</t>
+  </si>
+  <si>
+    <t>05/27/2016</t>
+  </si>
+  <si>
+    <t>Ckeck- double , triple, quadruple check reservations !</t>
+  </si>
+  <si>
+    <t>Needed to book a suite with each bedroom having 2 queen beds and a bath for a family wedding.  First checked on line to see that one was available.  Process looked easy so  I booked online.  Confirmed.   Done.  Good. Then feeling a bit uneasy about booking online  AND thinking another part of the family might need the same kind of suite,  I called the hotel directly. I booked another that was available also.  Confirmed.  Good.  As the date approached,  I reconfirmed online.  I also called the hotel and the front desk confirmed reservations AS STATED ABOVE.    Within time limits,  I found that we, indeed, only needed one suite.  Some family members checked in elsewhere.  I called the hotel and cancelled one.  I also, for the third time, confirmed my reservation- AS STATED ABOVE.  We arrived one hour before check-in to be able to finish all business before we had to leave for the airport to pick-up more  family.
+ You've probably guessed-  That suite was  NOT available !.  We were told the online site was in error and should not have booked it.  How about hotel personnel that booked us  the second one?  Well, they weren't sure what happened there, but not available.  They did have 2 of those suites but they were both being lived in from last  November through  May !     Manager was called, but never bothered to come to the hotel.  Front desk fretted, pondered and thought for...Needed to book a suite with each bedroom having 2 queen beds and a bath for a family wedding.  First checked on line to see that one was available.  Process looked easy so  I booked online.  Confirmed.   Done.  Good. Then feeling a bit uneasy about booking online  AND thinking another part of the family might need the same kind of suite,  I called the hotel directly. I booked another that was available also.  Confirmed.  Good.  As the date approached,  I reconfirmed online.  I also called the hotel and the front desk confirmed reservations AS STATED ABOVE.    Within time limits,  I found that we, indeed, only needed one suite.  Some family members checked in elsewhere.  I called the hotel and cancelled one.  I also, for the third time, confirmed my reservation- AS STATED ABOVE.  We arrived one hour before check-in to be able to finish all business before we had to leave for the airport to pick-up more  family. You've probably guessed-  That suite was  NOT available !.  We were told the online site was in error and should not have booked it.  How about hotel personnel that booked us  the second one?  Well, they weren't sure what happened there, but not available.  They did have 2 of those suites but they were both being lived in from last  November through  May !     Manager was called, but never bothered to come to the hotel.  Front desk fretted, pondered and thought for a  LONG while.  We  quickly had to find someone else  to go to the airport for family arriving.  About 1 1/2 hours later we were finally given a suite and a separate room to have enough queen beds.  So,  PLEASE be  VERY specific when booking here (as  I was ) and even then,  CHECK and  KEEP CHECKING your reservation. Oh, and the rooms were not cleaned and ready by check-in time.  I believe that was about an hour later.. However, once we all did arrive and got into the rooms, they were very nice, comfortable and clean.   My daughter's family, in the room, had a bit of a problem with the toilet.  Everyone also thought that breakfast was a bit sparse for the price of the establishment. If  we ever need a suite in this area again, we'll be booking elsewhere.  Good luck to you.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Needed to book a suite with each bedroom having 2 queen beds and a bath for a family wedding.  First checked on line to see that one was available.  Process looked easy so  I booked online.  Confirmed.   Done.  Good. Then feeling a bit uneasy about booking online  AND thinking another part of the family might need the same kind of suite,  I called the hotel directly. I booked another that was available also.  Confirmed.  Good.  As the date approached,  I reconfirmed online.  I also called the hotel and the front desk confirmed reservations AS STATED ABOVE.    Within time limits,  I found that we, indeed, only needed one suite.  Some family members checked in elsewhere.  I called the hotel and cancelled one.  I also, for the third time, confirmed my reservation- AS STATED ABOVE.  We arrived one hour before check-in to be able to finish all business before we had to leave for the airport to pick-up more  family.
+ You've probably guessed-  That suite was  NOT available !.  We were told the online site was in error and should not have booked it.  How about hotel personnel that booked us  the second one?  Well, they weren't sure what happened there, but not available.  They did have 2 of those suites but they were both being lived in from last  November through  May !     Manager was called, but never bothered to come to the hotel.  Front desk fretted, pondered and thought for...Needed to book a suite with each bedroom having 2 queen beds and a bath for a family wedding.  First checked on line to see that one was available.  Process looked easy so  I booked online.  Confirmed.   Done.  Good. Then feeling a bit uneasy about booking online  AND thinking another part of the family might need the same kind of suite,  I called the hotel directly. I booked another that was available also.  Confirmed.  Good.  As the date approached,  I reconfirmed online.  I also called the hotel and the front desk confirmed reservations AS STATED ABOVE.    Within time limits,  I found that we, indeed, only needed one suite.  Some family members checked in elsewhere.  I called the hotel and cancelled one.  I also, for the third time, confirmed my reservation- AS STATED ABOVE.  We arrived one hour before check-in to be able to finish all business before we had to leave for the airport to pick-up more  family. You've probably guessed-  That suite was  NOT available !.  We were told the online site was in error and should not have booked it.  How about hotel personnel that booked us  the second one?  Well, they weren't sure what happened there, but not available.  They did have 2 of those suites but they were both being lived in from last  November through  May !     Manager was called, but never bothered to come to the hotel.  Front desk fretted, pondered and thought for a  LONG while.  We  quickly had to find someone else  to go to the airport for family arriving.  About 1 1/2 hours later we were finally given a suite and a separate room to have enough queen beds.  So,  PLEASE be  VERY specific when booking here (as  I was ) and even then,  CHECK and  KEEP CHECKING your reservation. Oh, and the rooms were not cleaned and ready by check-in time.  I believe that was about an hour later.. However, once we all did arrive and got into the rooms, they were very nice, comfortable and clean.   My daughter's family, in the room, had a bit of a problem with the toilet.  Everyone also thought that breakfast was a bit sparse for the price of the establishment. If  we ever need a suite in this area again, we'll be booking elsewhere.  Good luck to you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r369596789-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>369596789</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>First time in the area.  Searched hotels and liked the reviews for TownePlace Suites.  Front Desk Manager, Ms. Washington greeted us in a very friendly and professional way.  In spite of two loads of equipment prematurely delivered for a new addition, she provided us with excellent service and a very nice room.  The room has a dining area, kitchen and the bedroom is separated by a wall and a door.  The bathroom is located in the living area.  The room has laminate and carpet.  The bathroom is a tad small, but works well.  The kitchen is well equipped for those staying long.  Even though the hotel is located right off the freeway, it is quiet enough to have a good nights sleep.  The bed and pillows are comfortable enough.  The rooms are very clean and the cleaning staff are friendly, professional and exceptional.  There is definite pride in this hotel by its employees.  Breakfast is the usual.  Coffee is good enough for me.  Express check out is a plus.  Leaving the hotel, we met Bea.  She works nights.  However, she is not the type of employee who leaves once her shift is over.  When we left, Bea made it a point to personally thank us for staying at the hotel and asked us to please come back.  My compliments to all the staff.  All hotels should be lucky to have employees such as TownePlace.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ashley B, General Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2016</t>
+  </si>
+  <si>
+    <t>First time in the area.  Searched hotels and liked the reviews for TownePlace Suites.  Front Desk Manager, Ms. Washington greeted us in a very friendly and professional way.  In spite of two loads of equipment prematurely delivered for a new addition, she provided us with excellent service and a very nice room.  The room has a dining area, kitchen and the bedroom is separated by a wall and a door.  The bathroom is located in the living area.  The room has laminate and carpet.  The bathroom is a tad small, but works well.  The kitchen is well equipped for those staying long.  Even though the hotel is located right off the freeway, it is quiet enough to have a good nights sleep.  The bed and pillows are comfortable enough.  The rooms are very clean and the cleaning staff are friendly, professional and exceptional.  There is definite pride in this hotel by its employees.  Breakfast is the usual.  Coffee is good enough for me.  Express check out is a plus.  Leaving the hotel, we met Bea.  She works nights.  However, she is not the type of employee who leaves once her shift is over.  When we left, Bea made it a point to personally thank us for staying at the hotel and asked us to please come back.  My compliments to all the staff.  All hotels should be lucky to have employees such as TownePlace.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r349415122-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
   </si>
   <si>
@@ -644,6 +976,57 @@
     <t>Well stocked room.clean.everyone went above and beyond even the housekeepers.Breakfast needs a little work but overall was good for what was there.I would definitely stay again if given the opportunity.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r325729291-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>325729291</t>
+  </si>
+  <si>
+    <t>11/10/2015</t>
+  </si>
+  <si>
+    <t>Not much to complain about...</t>
+  </si>
+  <si>
+    <t>The hotel was clean, friendly staff, nice sized rooms, and nice breakfast.  We would have liked an oven in our kitchen.  The laundry units do need to be updated.  Maybe next time we'll able able to take advantage of the pool.We would not hesitate to stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded November 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2015</t>
+  </si>
+  <si>
+    <t>The hotel was clean, friendly staff, nice sized rooms, and nice breakfast.  We would have liked an oven in our kitchen.  The laundry units do need to be updated.  Maybe next time we'll able able to take advantage of the pool.We would not hesitate to stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r314417945-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>314417945</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>Grade B accommodations!</t>
+  </si>
+  <si>
+    <t>The two-bedroom suite was very clean and well maintained.  The beds were comfortable, the bathrooms were reasonably clean except for hair that was found in the bathtub.  We especially liked the full kitchen.  My only real concern was the sour milk I found in the breakfast area.  I notified the desk manager and she stated she would check all the milk and dispose of it.  As Marriott timeshare owners, we were pleased with this short stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded September 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2015</t>
+  </si>
+  <si>
+    <t>The two-bedroom suite was very clean and well maintained.  The beds were comfortable, the bathrooms were reasonably clean except for hair that was found in the bathtub.  We especially liked the full kitchen.  My only real concern was the sour milk I found in the breakfast area.  I notified the desk manager and she stated she would check all the milk and dispose of it.  As Marriott timeshare owners, we were pleased with this short stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r313869569-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
   </si>
   <si>
@@ -659,9 +1042,6 @@
     <t>We came down to Lake Jackson to see our newest grand baby.  Even though we checked in rather late the staff was available, attentive and accommodated our needs.  Breakfast the next morning was just as friendly and accommodating.  We will definitely be staying here again.MoreShow less</t>
   </si>
   <si>
-    <t>September 2015</t>
-  </si>
-  <si>
     <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded September 28, 2015</t>
   </si>
   <si>
@@ -717,6 +1097,60 @@
   </si>
   <si>
     <t>Worked night shift and after hanging the Do Not Disturb sign on the door did not have to worry about getting woke up.  After leaving at 1 p.m. staff would have my room cleaned before my return to get ready for work at 3.  Great front desk staff.  Quiet, clean hotel.  Large rooms with plenty of area to stretch out.  Well staffed kitchen with full refrigerator, microwave, stove, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r305116902-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>305116902</t>
+  </si>
+  <si>
+    <t>08/30/2015</t>
+  </si>
+  <si>
+    <t>GREAT STAFF AND. HOTEL!!!!</t>
+  </si>
+  <si>
+    <t>Great staff!!  Thanks, Kiera, Christina, Beatrice, Ashley ,Brittany, Lauren.  Clean rooms close to beach away from Galveston crowds, Staff is tremendous other Marriott's  should be so good. Pool, and nice area outdoors to relax. Restaurants close by. Travel. From coast to coast and this is the best service I have received can't wait to go back!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded September 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2015</t>
+  </si>
+  <si>
+    <t>Great staff!!  Thanks, Kiera, Christina, Beatrice, Ashley ,Brittany, Lauren.  Clean rooms close to beach away from Galveston crowds, Staff is tremendous other Marriott's  should be so good. Pool, and nice area outdoors to relax. Restaurants close by. Travel. From coast to coast and this is the best service I have received can't wait to go back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r290237535-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>290237535</t>
+  </si>
+  <si>
+    <t>07/18/2015</t>
+  </si>
+  <si>
+    <t>Homiest Hotel of All - Best in Clute!</t>
+  </si>
+  <si>
+    <t>They have a great front desk team! They gave us great lunch recommendations to El Toro for our check out day. Lobby was very clean and bright. Our room was really nice and our housekeeper was helpful with getting us extra towels for the pool. We had a one bedroom suite which had a privacy door which was great when we had guests with us. I loved having coffee in my own room and not having to hassle with going downstairs. Before going in for the night, we used the grill that they have outside in their courtyard. Great place to stay for the weekend! We will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2015</t>
+  </si>
+  <si>
+    <t>They have a great front desk team! They gave us great lunch recommendations to El Toro for our check out day. Lobby was very clean and bright. Our room was really nice and our housekeeper was helpful with getting us extra towels for the pool. We had a one bedroom suite which had a privacy door which was great when we had guests with us. I loved having coffee in my own room and not having to hassle with going downstairs. Before going in for the night, we used the grill that they have outside in their courtyard. Great place to stay for the weekend! We will be back!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r289016378-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
@@ -801,6 +1235,57 @@
     <t>We had a few issues with the rooms but nothing major.  They were unable to find one of the rooms on our reservation but we booked through Hotels.com so its hard to tell where the error occurred.  My room (2 bedroom suite) was clean but we had a problem with the AC not working well.  We reported to front desk and it was fixed immediately.  Fridge in our room wasn't working the best but this wasn't really a concern to us.  We were on the second floor but others from our party were on the first floor where they found a cockroach in their room.  Apparently this is an issue in the area. The breakfast was mediocre.  By the time we went to eat there was very little hot food left as it didn't appeared they refilled it.  Overall, rooms were fine and we had plenty of space in the suite and 1 bedroom king.  Clean, good location near major highway, free wifi, pool and fitness center.  We didn't spend much time at the hotel but it served it's function well.  Would stay again if I was in the area.  Check out Shipley's Donuts not far away while you are there!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r279890865-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>279890865</t>
+  </si>
+  <si>
+    <t>06/13/2015</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Good place to stay, great location. Clean rooms and grounds.  The kitchenette make the stay very enjoyable so that you do not have to eat out in town every night. And breakfast in the AM is a bonus as well with a good selection of breakfast itemsMoreShow less</t>
+  </si>
+  <si>
+    <t>Ashley B, General Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded June 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2015</t>
+  </si>
+  <si>
+    <t>Good place to stay, great location. Clean rooms and grounds.  The kitchenette make the stay very enjoyable so that you do not have to eat out in town every night. And breakfast in the AM is a bonus as well with a good selection of breakfast itemsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r265343553-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>265343553</t>
+  </si>
+  <si>
+    <t>04/12/2015</t>
+  </si>
+  <si>
+    <t>Not a great way to start the year</t>
+  </si>
+  <si>
+    <t>We traveled as a family to the Lake Jackson Texas area the last week of December 2014.  We picked Townplace suites because they have two bedroom suites with a kitchen and family room area.  These are hard to find.  After our first night we noticed bug bites on our legs and a nagging head ache when we woke up. (Occurred every morning we were there)  We were busy visiting family that we didn't investigate the cause.  One afternoon we came back to relax before our New Year eve plans.  In the day light we found fleas on both beds.  Mold on the A/C vent and duct area and silver fish on a bed pillow.  We immediately decided to check out and report it to the office.  They did reduce our bill, but did not offer any other apology after sending a comment to their corporate office. The fleas and mold surprised us for this type of facility.  One positive,  they staff were pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded April 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2015</t>
+  </si>
+  <si>
+    <t>We traveled as a family to the Lake Jackson Texas area the last week of December 2014.  We picked Townplace suites because they have two bedroom suites with a kitchen and family room area.  These are hard to find.  After our first night we noticed bug bites on our legs and a nagging head ache when we woke up. (Occurred every morning we were there)  We were busy visiting family that we didn't investigate the cause.  One afternoon we came back to relax before our New Year eve plans.  In the day light we found fleas on both beds.  Mold on the A/C vent and duct area and silver fish on a bed pillow.  We immediately decided to check out and report it to the office.  They did reduce our bill, but did not offer any other apology after sending a comment to their corporate office. The fleas and mold surprised us for this type of facility.  One positive,  they staff were pleasant.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r264134275-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
   </si>
   <si>
@@ -846,9 +1331,6 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded March 24, 2015</t>
   </si>
   <si>
@@ -883,6 +1365,60 @@
   </si>
   <si>
     <t>Another quality Marriot location.  property grounds and building are well maintained.  Staff was extremely friendly and helpful.  Room had all of the things I have come to expect, comfortable bed, pillows and a well equipped work area.  Breakfast was plenty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r241577270-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>241577270</t>
+  </si>
+  <si>
+    <t>11/26/2014</t>
+  </si>
+  <si>
+    <t>Wonderful Staff and very comfortable.</t>
+  </si>
+  <si>
+    <t>Traveled to the Lake Jackson/Clute area for business and stayed at the only Marriott in the area due to being a Marriott rewards member.  Very impressed with the friendly staff that greeted us upon our late night arrival, thank you for the smile Bea.Room was comfortable and clean.Breakfast was limited but much appreciated since we had to be out the door our first morning very early so at least we had some food in our stomachs to start the day.  Again thank you for that Bea.This was my first time staying at a TownPlace Suite brand and absolutely enjoyed it.  Located around restaurants so access to those is pretty easy.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded November 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2014</t>
+  </si>
+  <si>
+    <t>Traveled to the Lake Jackson/Clute area for business and stayed at the only Marriott in the area due to being a Marriott rewards member.  Very impressed with the friendly staff that greeted us upon our late night arrival, thank you for the smile Bea.Room was comfortable and clean.Breakfast was limited but much appreciated since we had to be out the door our first morning very early so at least we had some food in our stomachs to start the day.  Again thank you for that Bea.This was my first time staying at a TownPlace Suite brand and absolutely enjoyed it.  Located around restaurants so access to those is pretty easy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r240613903-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>240613903</t>
+  </si>
+  <si>
+    <t>11/19/2014</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I have stayed at this many times in the past year and there were major issues we had with certain people &amp; problems we dealt with but I will say this over the past few months the hotel Management team has step up and made some much needed changes in this hotel and I will without a shadow of of a doubt recommand the hotel 150% to everyone. The have an awesome Team that truly goes beyond the call of duty to make you feel truly right at home while away from home.  A BIG THANK YOU  the Manager of the Hotel Ms. Ashley, &amp; 3 caring young  ladies that have been very sweet, kind &amp; helped to  me a lot &amp; to my family too,  they are Lauren and Ruby and Kiera They are all awesome Thank you so muchMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded November 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed at this many times in the past year and there were major issues we had with certain people &amp; problems we dealt with but I will say this over the past few months the hotel Management team has step up and made some much needed changes in this hotel and I will without a shadow of of a doubt recommand the hotel 150% to everyone. The have an awesome Team that truly goes beyond the call of duty to make you feel truly right at home while away from home.  A BIG THANK YOU  the Manager of the Hotel Ms. Ashley, &amp; 3 caring young  ladies that have been very sweet, kind &amp; helped to  me a lot &amp; to my family too,  they are Lauren and Ruby and Kiera They are all awesome Thank you so muchMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r236704329-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
@@ -933,9 +1469,6 @@
     <t>The stay here is related to work. I am working in this area for months at a time and this hotel offered an at-home feel. A full kitchen and separate bedroom with large closet is great when my spouse is with me. The rooms, including the bathroom, are very nicely sized with a sofa &amp; TV in the sitting area and a large table in kitchen area.  There is a guest laundry as well, which is a plus, however, we have stayed at other properties that offer FREE guest laundry facilities on site.  There is a complimentary breakfast, but not much variety. Only bran type cereals, which is not a favorite with children, are on the menu. After a week stay, I have only seen breakfast sausage &amp; no bacon, &amp; only bagels or muffins and no biscuits or bread for toast.  There is room for improvement there. The staff was nice.MoreShow less</t>
   </si>
   <si>
-    <t>October 2014</t>
-  </si>
-  <si>
     <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded October 10, 2014</t>
   </si>
   <si>
@@ -969,6 +1502,54 @@
     <t>I almost never give five-star reviews because ... well, most hotel properties aren't worthy of such a ranking, and if I gave everything five stars then my reviews would be just a bunch of meaningless, emotional claptrap.  So let's get down to business.  I spent two nights at the Towneplace Suites Lake Jackson/Clute in late September, and enjoyed every moment of it.  The staff is friendly and helpful.  The building seems to be new, and is squeaky-clean.  The breakfast included some hot items and was more than adequate.  The one and ONLY thing about this hotel that nearly drove me nuts was the excruciatingly slow Internet.  It wasn't only slow -- it occasionally came to a screeching halt and I had to connect and reconnect until it decided to let me back on again.  Why do I care so much about the Internet?  Because I'm a business traveler -- it's how I file reports, do my time cards, research technical issues for clients, and so forth.  I don't expect the Internet at a hotel to be as fast as my connection at home, but at the bare minimum I expect something usable.   If it wasn't for the Internet issue, this TownePlace Suites would have easily had five stars from me.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r230412066-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>230412066</t>
+  </si>
+  <si>
+    <t>09/22/2014</t>
+  </si>
+  <si>
+    <t>Amazing staff....</t>
+  </si>
+  <si>
+    <t>I have to start of by saying this is an amazing hotel to stay at. I had a lot of dealings with Roberta Garcia she is on the evening shift usually. She is so professional and helpful. She made me feel very welcome. I have seen her deal with many people at a time and keeps smiling all the while. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded September 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2014</t>
+  </si>
+  <si>
+    <t>I have to start of by saying this is an amazing hotel to stay at. I had a lot of dealings with Roberta Garcia she is on the evening shift usually. She is so professional and helpful. She made me feel very welcome. I have seen her deal with many people at a time and keeps smiling all the while. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r227009534-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>227009534</t>
+  </si>
+  <si>
+    <t>09/04/2014</t>
+  </si>
+  <si>
+    <t>5 star room and service</t>
+  </si>
+  <si>
+    <t>My company (Fuddruckers) booked this room for me for a short stay (4 nights). I was expecting a mediocre room with average employees. Wow! Was I ever surprised! I was amazed by the suite (I had an upgrade due to availability upon arrival). The room was over the top! I was SO impressed that they thought of EVERYTHING that I might need to cook an actual meal, and I mean everything down to the pasta strainer and nice containers for left overs! I did not have a 'mini' fridge or microwave, but an actual fridge and a full size microwave. They had NICE complimentary shampoo (Paul Mitchell), and THREE flat screens in my suite! 1 in each of the large bedrooms, and another in the living room. There is also FREE wifi, and an island in the kitchen that doubles as a dining table to comfortably seat four. I am now into my second night, and every communication that I have had with the staff has been amazing. This morning, I woke up and went to check out the breakfast. I was again impressed. There were omelets, and waffles, various dry cereals with either lowfat or whole milk, juices, yogurts, and yes COFFEE! (There is also a 12 cup coffee maker in my suite and they even provide complimentary coffee! I used one bag today, and when I returned from work, my room was tidied up, and they left MORE...My company (Fuddruckers) booked this room for me for a short stay (4 nights). I was expecting a mediocre room with average employees. Wow! Was I ever surprised! I was amazed by the suite (I had an upgrade due to availability upon arrival). The room was over the top! I was SO impressed that they thought of EVERYTHING that I might need to cook an actual meal, and I mean everything down to the pasta strainer and nice containers for left overs! I did not have a 'mini' fridge or microwave, but an actual fridge and a full size microwave. They had NICE complimentary shampoo (Paul Mitchell), and THREE flat screens in my suite! 1 in each of the large bedrooms, and another in the living room. There is also FREE wifi, and an island in the kitchen that doubles as a dining table to comfortably seat four. I am now into my second night, and every communication that I have had with the staff has been amazing. This morning, I woke up and went to check out the breakfast. I was again impressed. There were omelets, and waffles, various dry cereals with either lowfat or whole milk, juices, yogurts, and yes COFFEE! (There is also a 12 cup coffee maker in my suite and they even provide complimentary coffee! I used one bag today, and when I returned from work, my room was tidied up, and they left MORE coffee and coffee fixin's (cream, sugar, etc).I have said a lot, but can not end this without mentioning three of the amazing team members that I have encountered here, that have helped to make my stay the best I could have dreamed of. They are RUBY, ASHLEY and BEA. They all three worked at the front, and were helpful, informative and SWEET. You could tell they LOVED their jobs, and y'all are lucky to have them on your team representing your company. I will be back, and will tell my company (Luby's /Fuddrucker's) to keep using y'all!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ashley B, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded September 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2014</t>
+  </si>
+  <si>
+    <t>My company (Fuddruckers) booked this room for me for a short stay (4 nights). I was expecting a mediocre room with average employees. Wow! Was I ever surprised! I was amazed by the suite (I had an upgrade due to availability upon arrival). The room was over the top! I was SO impressed that they thought of EVERYTHING that I might need to cook an actual meal, and I mean everything down to the pasta strainer and nice containers for left overs! I did not have a 'mini' fridge or microwave, but an actual fridge and a full size microwave. They had NICE complimentary shampoo (Paul Mitchell), and THREE flat screens in my suite! 1 in each of the large bedrooms, and another in the living room. There is also FREE wifi, and an island in the kitchen that doubles as a dining table to comfortably seat four. I am now into my second night, and every communication that I have had with the staff has been amazing. This morning, I woke up and went to check out the breakfast. I was again impressed. There were omelets, and waffles, various dry cereals with either lowfat or whole milk, juices, yogurts, and yes COFFEE! (There is also a 12 cup coffee maker in my suite and they even provide complimentary coffee! I used one bag today, and when I returned from work, my room was tidied up, and they left MORE...My company (Fuddruckers) booked this room for me for a short stay (4 nights). I was expecting a mediocre room with average employees. Wow! Was I ever surprised! I was amazed by the suite (I had an upgrade due to availability upon arrival). The room was over the top! I was SO impressed that they thought of EVERYTHING that I might need to cook an actual meal, and I mean everything down to the pasta strainer and nice containers for left overs! I did not have a 'mini' fridge or microwave, but an actual fridge and a full size microwave. They had NICE complimentary shampoo (Paul Mitchell), and THREE flat screens in my suite! 1 in each of the large bedrooms, and another in the living room. There is also FREE wifi, and an island in the kitchen that doubles as a dining table to comfortably seat four. I am now into my second night, and every communication that I have had with the staff has been amazing. This morning, I woke up and went to check out the breakfast. I was again impressed. There were omelets, and waffles, various dry cereals with either lowfat or whole milk, juices, yogurts, and yes COFFEE! (There is also a 12 cup coffee maker in my suite and they even provide complimentary coffee! I used one bag today, and when I returned from work, my room was tidied up, and they left MORE coffee and coffee fixin's (cream, sugar, etc).I have said a lot, but can not end this without mentioning three of the amazing team members that I have encountered here, that have helped to make my stay the best I could have dreamed of. They are RUBY, ASHLEY and BEA. They all three worked at the front, and were helpful, informative and SWEET. You could tell they LOVED their jobs, and y'all are lucky to have them on your team representing your company. I will be back, and will tell my company (Luby's /Fuddrucker's) to keep using y'all!!!!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r223941046-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
   </si>
   <si>
@@ -1038,6 +1619,48 @@
     <t>10 minutes to the beach.  Had plenty of room for family of 5. If i had known there was a kitchen in the room we would of had pizza.  Breakfast was alright and free.  Breakfast area is set up for couples so tables need to be pushed together for larger families.   More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r214582601-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>214582601</t>
+  </si>
+  <si>
+    <t>07/09/2014</t>
+  </si>
+  <si>
+    <t>Smells like mildew</t>
+  </si>
+  <si>
+    <t>Hallways have strong mildew odor. Unreliable internet. Noisy a/c in room. Wakeup call feature on phone doesn't work and the front desk forgets your wakeup call. Marginal breakfast. Toughest omelets I've ever eaten; needed a knife to cut them. Won't stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r200142054-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>200142054</t>
+  </si>
+  <si>
+    <t>04/06/2014</t>
+  </si>
+  <si>
+    <t>CONVENIENT CLUTE/LAKE JACKSON</t>
+  </si>
+  <si>
+    <t>This was a very convenient location to get to anything in Clute, Lake Jackson and Freeport.  The staff was wonderful, the amenities enjoyable and the price was right!  Whether going to the area's mall, visiting friends, heading to the many beaches, visiting family and friends, this was an excellent choice!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Ashley B, General Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded April 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2014</t>
+  </si>
+  <si>
+    <t>This was a very convenient location to get to anything in Clute, Lake Jackson and Freeport.  The staff was wonderful, the amenities enjoyable and the price was right!  Whether going to the area's mall, visiting friends, heading to the many beaches, visiting family and friends, this was an excellent choice!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r189606127-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
   </si>
   <si>
@@ -1099,6 +1722,42 @@
   </si>
   <si>
     <t>This hotel is so friendly and accommodating to the traveler.  We have stayed here twice within 3 months, and the staff has been outstanding both visits. The front desk / concierge staff is knowledgeable and trained to serve (which isn't as common as you think it should be!).  On this visit, I believe I talked with Victoria, and she was friendly and welcoming.   The roomy are very clean.  The kitchen and living area help to make you feel comfortable.  Plenty of hot water for showers.  Beds are very comfortable and inviting.  And... save the best for last, the outdoor pool is clean and the water is not too cold!  it is great!  The outdoor patio area and landscaping is kept very clean and beautiful.  There is even a grill for guests' use!   And - here's a shout out for Victor, who notices what's needed and helps the guests - even when I am pretty sure it's not in his job description.   Overall, GREAT place to stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r179433896-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>179433896</t>
+  </si>
+  <si>
+    <t>10/02/2013</t>
+  </si>
+  <si>
+    <t>Very Comfortable</t>
+  </si>
+  <si>
+    <t>Comfortable, quiet and easy access to highway.  I can say anything bad nor can I place them as an outstanding place to stay.  It just works... note we did have a COCKROACH in our room not a palmetto bug.  I do know the difference.The telephone did not work... discovered that on the second day.The wireless is terrible!  No ethernet ports in the rooms.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r175985417-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>175985417</t>
+  </si>
+  <si>
+    <t>09/05/2013</t>
+  </si>
+  <si>
+    <t>Quick stay and nice staff</t>
+  </si>
+  <si>
+    <t>Our time here was short, but Bea made a great impression on us.  We got there a little after midnight after a long drive down from Dallas.  We were given our room information quickly and a quick rundown of the hotel and what was available.  Once in our room, it was nice and clean.  The bed was great, but it helped I was really tired and knew that fishing was coming early.  After a few hours of sleep, we were up and had almost no delay in plenty of hot water in the hotel.  I quickly remembered how soft the water is down there, but I cant ding the hotel on that.  Breakfast was setup downstairs and we had a wide selection to choose from.  I would have preferred some meat selections, but fruit, waffles, cereal, yogurt was probably better for me.  We were out with shift change and on the water 20 minutes later.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Our time here was short, but Bea made a great impression on us.  We got there a little after midnight after a long drive down from Dallas.  We were given our room information quickly and a quick rundown of the hotel and what was available.  Once in our room, it was nice and clean.  The bed was great, but it helped I was really tired and knew that fishing was coming early.  After a few hours of sleep, we were up and had almost no delay in plenty of hot water in the hotel.  I quickly remembered how soft the water is down there, but I cant ding the hotel on that.  Breakfast was setup downstairs and we had a wide selection to choose from.  I would have preferred some meat selections, but fruit, waffles, cereal, yogurt was probably better for me.  We were out with shift change and on the water 20 minutes later.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r170172455-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
@@ -1180,6 +1839,45 @@
     <t>amazing clean very niece staff i was outside checking my oil on my truck Mr. Henry was outside working he stop to help me check the dip stick he even checked the brake fluid told me it was low way to go henry!!!!!! i will be back my son just started working at one of the plants here in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r169011323-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>169011323</t>
+  </si>
+  <si>
+    <t>07/25/2013</t>
+  </si>
+  <si>
+    <t>Nice clean dog friendly hotel.  The staff was very friendly and the manager was also pleasant.  When we checked in they inadvertently put us in a room that was not clean.  They corrected this before we even noticed.  The new room was very clean, the internet was FREE and the family enjoyed the free continental breakfast.  The only reason for four stars was the fact housekeeping woke me up by knocking on the door even with the "Privacy Please" sign on the door.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice clean dog friendly hotel.  The staff was very friendly and the manager was also pleasant.  When we checked in they inadvertently put us in a room that was not clean.  They corrected this before we even noticed.  The new room was very clean, the internet was FREE and the family enjoyed the free continental breakfast.  The only reason for four stars was the fact housekeeping woke me up by knocking on the door even with the "Privacy Please" sign on the door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r167998216-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>167998216</t>
+  </si>
+  <si>
+    <t>07/17/2013</t>
+  </si>
+  <si>
+    <t>Amazing staff - Nicole, Ashley and Brittany. Couldn't have asked for a more pleasant group.</t>
+  </si>
+  <si>
+    <t>Amazing staff - Nicole, Ashley and Brittany. Couldn't have asked for a more pleasant group. They made my two week stay great and were quick to respond to any requests. The manager, Marcus, was also very accessible and pleasant as well. Loved having a grill on site to use. Pool equally nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Phil H, Manager at TownePlace Suites Lake Jackson Clute, responded to this reviewResponded July 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2013</t>
+  </si>
+  <si>
+    <t>Amazing staff - Nicole, Ashley and Brittany. Couldn't have asked for a more pleasant group. They made my two week stay great and were quick to respond to any requests. The manager, Marcus, was also very accessible and pleasant as well. Loved having a grill on site to use. Pool equally nice.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r167720234-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
   </si>
   <si>
@@ -1247,6 +1945,45 @@
   </si>
   <si>
     <t>My son was getting married on June 1, 2013  at Surfside Beach so we had 5 rooms booked with some of our family. The room was spotless, the beds were even better than mine at home, and the service was incredible. Every single person that worked there from the front desk to the housekeepers went out of their way to make our stay enjoyable and to make sure that we were comfortable. Hands down, this is one of the best hotels that we have stayed at over the years and we will definitely be staying there again. Thank you for your kindness and for making our family feel like we were the only ones that were staying there. Wow, what else could you possibly ask for??More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r161753932-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>161753932</t>
+  </si>
+  <si>
+    <t>05/24/2013</t>
+  </si>
+  <si>
+    <t>Team Members Evaluation</t>
+  </si>
+  <si>
+    <t>I would like to thank your Team Members Ashley L., Bea and Nicole from the Hotel TownePlaces Suites located in Lake Jackson, Clute, TX for their phantastic and exceptional service offered during the two weeks I stayed at the hotel. Their competitiveness, professionalism and the way they care about me to make me feel comfortable reflects the excellent quality and passion for their job in such way that the guest does not need to worry about anything. I appreciated a lot that I not even needed to ask them for anything; they took the initiative to ask me if everything was ok and if I was feeling comfortable during my stayThank you very much for your really grat job!Room 216 (May 11th - May 25th 2013) Dr. Sergio Sabater PrietoMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>I would like to thank your Team Members Ashley L., Bea and Nicole from the Hotel TownePlaces Suites located in Lake Jackson, Clute, TX for their phantastic and exceptional service offered during the two weeks I stayed at the hotel. Their competitiveness, professionalism and the way they care about me to make me feel comfortable reflects the excellent quality and passion for their job in such way that the guest does not need to worry about anything. I appreciated a lot that I not even needed to ask them for anything; they took the initiative to ask me if everything was ok and if I was feeling comfortable during my stayThank you very much for your really grat job!Room 216 (May 11th - May 25th 2013) Dr. Sergio Sabater PrietoMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r161021375-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>161021375</t>
+  </si>
+  <si>
+    <t>05/17/2013</t>
+  </si>
+  <si>
+    <t>Well Worth the investment</t>
+  </si>
+  <si>
+    <t>I'm just a  working woman; Who travels from job to job and finding the right hotel is major.  Well I've been in the little town of Clute/Lake Jackson for a few months working at a major refinery.  Everyday I'm exposed to fith and dirt along with ugly chemicals.  So when I head back to the hotel, rest and cleaniness is major priopity for me.  Thank God for the Towne Place Suites located in Clute/Lake Jackson Texas.  The staff is awesome, I feel welcomed and well taken care of (my every need).  The place is top of the line clean, and I've stayed in a few hotels in the town.  Rooms cost more than my pridemiter but I'm happy to pay the difference.  Every day I feel like I'm headed back to my roomie apartment.  Able to cook; wash and relax.  The housekeepers can't be topped.  My room is like new everyday.  The front desk doesn't just greet you. They make sure you have what you need, when you need it.  I feel sorry for them sometimes, because people take them for granted.  But I don't Thank you Towne Place I will make it a point to stay with you everytime.  The sight price difference is worth the investment into my comfort, enabling me to go back to a job i dislike and to look forward to home away from home.   signing MG the traveling working classMoreShow less</t>
+  </si>
+  <si>
+    <t>I'm just a  working woman; Who travels from job to job and finding the right hotel is major.  Well I've been in the little town of Clute/Lake Jackson for a few months working at a major refinery.  Everyday I'm exposed to fith and dirt along with ugly chemicals.  So when I head back to the hotel, rest and cleaniness is major priopity for me.  Thank God for the Towne Place Suites located in Clute/Lake Jackson Texas.  The staff is awesome, I feel welcomed and well taken care of (my every need).  The place is top of the line clean, and I've stayed in a few hotels in the town.  Rooms cost more than my pridemiter but I'm happy to pay the difference.  Every day I feel like I'm headed back to my roomie apartment.  Able to cook; wash and relax.  The housekeepers can't be topped.  My room is like new everyday.  The front desk doesn't just greet you. They make sure you have what you need, when you need it.  I feel sorry for them sometimes, because people take them for granted.  But I don't Thank you Towne Place I will make it a point to stay with you everytime.  The sight price difference is worth the investment into my comfort, enabling me to go back to a job i dislike and to look forward to home away from home.   signing MG the traveling working classMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d225736-r160605558-TownePlace_Suites_Lake_Jackson_Clute-Clute_Texas.html</t>
@@ -1860,13 +2597,13 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1878,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
         <v>64</v>
-      </c>
-      <c r="X3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -1900,34 +2637,34 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>70</v>
       </c>
-      <c r="L4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>62</v>
-      </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1939,13 +2676,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1961,58 +2698,52 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
         <v>75</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>76</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>77</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>78</v>
       </c>
-      <c r="L5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O5" t="s">
-        <v>63</v>
-      </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>3</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
         <v>81</v>
-      </c>
-      <c r="X5" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -2028,34 +2759,34 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
         <v>84</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>85</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>86</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>87</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>88</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>89</v>
-      </c>
-      <c r="O6" t="s">
-        <v>63</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2067,13 +2798,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
         <v>90</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>91</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -2089,56 +2820,52 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
         <v>93</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>94</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>95</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>96</v>
-      </c>
-      <c r="L7" t="s">
-        <v>97</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" t="s">
         <v>98</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>99</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -2154,37 +2881,47 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>101</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>102</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>103</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>104</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>105</v>
       </c>
-      <c r="M8" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="s"/>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
@@ -2238,7 +2975,7 @@
         <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2299,25 +3036,31 @@
         <v>123</v>
       </c>
       <c r="O10" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
         <v>125</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>126</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11">
@@ -2333,56 +3076,52 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
         <v>128</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>129</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>130</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>131</v>
-      </c>
-      <c r="L11" t="s">
-        <v>132</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O11" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
         <v>134</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>135</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="12">
@@ -2398,52 +3137,56 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
         <v>137</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>138</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>139</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>140</v>
       </c>
-      <c r="L12" t="s">
-        <v>141</v>
-      </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
-      </c>
-      <c r="P12" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
+        <v>141</v>
+      </c>
+      <c r="X12" t="s">
         <v>142</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>143</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="13">
@@ -2459,56 +3202,52 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
         <v>145</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>146</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>147</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>148</v>
       </c>
-      <c r="L13" t="s">
-        <v>149</v>
-      </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>124</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
+        <v>149</v>
+      </c>
+      <c r="X13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y13" t="s">
         <v>151</v>
-      </c>
-      <c r="X13" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="14">
@@ -2524,58 +3263,52 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" t="s">
         <v>154</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>155</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>156</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>157</v>
       </c>
-      <c r="L14" t="s">
-        <v>158</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>159</v>
-      </c>
       <c r="O14" t="s">
-        <v>124</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s">
         <v>160</v>
-      </c>
-      <c r="X14" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="15">
@@ -2591,58 +3324,48 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" t="s">
         <v>163</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>164</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>165</v>
       </c>
-      <c r="K15" t="s">
-        <v>166</v>
-      </c>
-      <c r="L15" t="s">
-        <v>167</v>
-      </c>
       <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>159</v>
-      </c>
-      <c r="O15" t="s">
-        <v>124</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>2</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>4</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
+        <v>166</v>
+      </c>
+      <c r="X15" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y15" t="s">
         <v>168</v>
-      </c>
-      <c r="X15" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="16">
@@ -2658,34 +3381,34 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" t="s">
         <v>171</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>172</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>173</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>174</v>
       </c>
-      <c r="L16" t="s">
-        <v>175</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>159</v>
-      </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2697,13 +3420,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
+        <v>175</v>
+      </c>
+      <c r="X16" t="s">
         <v>176</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>177</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="17">
@@ -2719,58 +3442,52 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
         <v>179</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>180</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>181</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>182</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
         <v>183</v>
       </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>184</v>
-      </c>
       <c r="O17" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
+        <v>184</v>
+      </c>
+      <c r="X17" t="s">
         <v>185</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>186</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="18">
@@ -2786,52 +3503,58 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
         <v>188</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>189</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>190</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>191</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
         <v>192</v>
       </c>
-      <c r="M18" t="n">
-        <v>2</v>
-      </c>
-      <c r="N18" t="s">
-        <v>193</v>
-      </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
+        <v>193</v>
+      </c>
+      <c r="X18" t="s">
         <v>194</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>195</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="19">
@@ -2847,34 +3570,34 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
         <v>197</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>198</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>199</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>200</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>201</v>
       </c>
-      <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>202</v>
-      </c>
-      <c r="O19" t="s">
-        <v>124</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2939,10 +3662,14 @@
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
@@ -2990,24 +3717,20 @@
         <v>219</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
         <v>211</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>4</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
@@ -3058,17 +3781,15 @@
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
       </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
@@ -3079,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="X22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23">
@@ -3101,7 +3822,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3110,49 +3831,43 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J23" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K23" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O23" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="X23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Y23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24">
@@ -3168,7 +3883,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3177,43 +3892,49 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K24" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O24" t="s">
-        <v>124</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
       <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y24" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25">
@@ -3229,7 +3950,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3238,47 +3959,49 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J25" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O25" t="s">
-        <v>124</v>
-      </c>
-      <c r="P25" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X25" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y25" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26">
@@ -3294,7 +4017,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3303,35 +4026,37 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J26" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K26" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L26" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="O26" t="s">
-        <v>124</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3383,10 +4108,10 @@
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="O27" t="s">
-        <v>272</v>
+        <v>88</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3398,13 +4123,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
+        <v>271</v>
+      </c>
+      <c r="X27" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y27" t="s">
         <v>273</v>
-      </c>
-      <c r="X27" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="28">
@@ -3420,56 +4145,58 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>274</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>275</v>
+      </c>
+      <c r="J28" t="s">
         <v>276</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
         <v>277</v>
       </c>
-      <c r="J28" t="s">
+      <c r="L28" t="s">
         <v>278</v>
       </c>
-      <c r="K28" t="s">
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
         <v>279</v>
       </c>
-      <c r="L28" t="s">
-        <v>280</v>
-      </c>
-      <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
-        <v>281</v>
-      </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="X28" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="Y28" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29">
@@ -3485,43 +4212,43 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>281</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>282</v>
+      </c>
+      <c r="J29" t="s">
+        <v>283</v>
+      </c>
+      <c r="K29" t="s">
+        <v>284</v>
+      </c>
+      <c r="L29" t="s">
         <v>285</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
-        <v>286</v>
-      </c>
-      <c r="J29" t="s">
-        <v>287</v>
-      </c>
-      <c r="K29" t="s">
-        <v>288</v>
-      </c>
-      <c r="L29" t="s">
-        <v>289</v>
-      </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="O29" t="s">
-        <v>63</v>
-      </c>
-      <c r="P29" t="s"/>
+        <v>202</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
       <c r="Q29" t="s"/>
       <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
         <v>5</v>
@@ -3530,13 +4257,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="X29" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="Y29" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30">
@@ -3552,56 +4279,58 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>289</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>290</v>
+      </c>
+      <c r="J30" t="s">
+        <v>291</v>
+      </c>
+      <c r="K30" t="s">
+        <v>292</v>
+      </c>
+      <c r="L30" t="s">
+        <v>293</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
         <v>294</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
-        <v>295</v>
-      </c>
-      <c r="J30" t="s">
-        <v>296</v>
-      </c>
-      <c r="K30" t="s">
-        <v>297</v>
-      </c>
-      <c r="L30" t="s">
-        <v>298</v>
-      </c>
-      <c r="M30" t="n">
-        <v>4</v>
-      </c>
-      <c r="N30" t="s">
-        <v>299</v>
-      </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="n">
-        <v>4</v>
-      </c>
-      <c r="S30" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="X30" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="Y30" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31">
@@ -3617,58 +4346,52 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>298</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>299</v>
+      </c>
+      <c r="J31" t="s">
+        <v>300</v>
+      </c>
+      <c r="K31" t="s">
+        <v>301</v>
+      </c>
+      <c r="L31" t="s">
+        <v>302</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
         <v>303</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
-        <v>304</v>
-      </c>
-      <c r="J31" t="s">
-        <v>305</v>
-      </c>
-      <c r="K31" t="s">
-        <v>306</v>
-      </c>
-      <c r="L31" t="s">
-        <v>307</v>
-      </c>
-      <c r="M31" t="n">
-        <v>4</v>
-      </c>
-      <c r="N31" t="s">
-        <v>290</v>
-      </c>
       <c r="O31" t="s">
-        <v>63</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="X31" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Y31" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32">
@@ -3684,58 +4407,52 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>307</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>308</v>
+      </c>
+      <c r="J32" t="s">
+        <v>309</v>
+      </c>
+      <c r="K32" t="s">
+        <v>310</v>
+      </c>
+      <c r="L32" t="s">
         <v>311</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
         <v>312</v>
       </c>
-      <c r="J32" t="s">
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
         <v>313</v>
       </c>
-      <c r="K32" t="s">
+      <c r="X32" t="s">
         <v>314</v>
       </c>
-      <c r="L32" t="s">
+      <c r="Y32" t="s">
         <v>315</v>
-      </c>
-      <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
-      <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="s">
-        <v>316</v>
-      </c>
-      <c r="X32" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="33">
@@ -3751,35 +4468,31 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>316</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>317</v>
+      </c>
+      <c r="J33" t="s">
+        <v>318</v>
+      </c>
+      <c r="K33" t="s">
         <v>319</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="L33" t="s">
         <v>320</v>
       </c>
-      <c r="J33" t="s">
-        <v>321</v>
-      </c>
-      <c r="K33" t="s">
-        <v>322</v>
-      </c>
-      <c r="L33" t="s">
-        <v>323</v>
-      </c>
       <c r="M33" t="n">
-        <v>3</v>
-      </c>
-      <c r="N33" t="s">
-        <v>324</v>
-      </c>
-      <c r="O33" t="s">
-        <v>63</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
@@ -3790,13 +4503,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="X33" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Y33" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34">
@@ -3812,52 +4525,58 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>324</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>325</v>
+      </c>
+      <c r="J34" t="s">
+        <v>326</v>
+      </c>
+      <c r="K34" t="s">
+        <v>327</v>
+      </c>
+      <c r="L34" t="s">
         <v>328</v>
-      </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
-        <v>329</v>
-      </c>
-      <c r="J34" t="s">
-        <v>330</v>
-      </c>
-      <c r="K34" t="s">
-        <v>331</v>
-      </c>
-      <c r="L34" t="s">
-        <v>332</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="O34" t="s">
-        <v>124</v>
-      </c>
-      <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
       <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="X34" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Y34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35">
@@ -3873,58 +4592,52 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
+        <v>333</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
         <v>334</v>
       </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>335</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>336</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>337</v>
-      </c>
-      <c r="L35" t="s">
-        <v>338</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
+        <v>329</v>
+      </c>
+      <c r="O35" t="s">
+        <v>78</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>338</v>
+      </c>
+      <c r="X35" t="s">
         <v>339</v>
       </c>
-      <c r="O35" t="s">
-        <v>124</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
-      <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36">
@@ -3940,7 +4653,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3949,53 +4662,47 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J36" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K36" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L36" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="X36" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Y36" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37">
@@ -4011,7 +4718,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4020,25 +4727,25 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J37" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K37" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L37" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="O37" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4046,12 +4753,8 @@
       <c r="Q37" t="n">
         <v>5</v>
       </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
         <v>5</v>
@@ -4059,10 +4762,14 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>354</v>
+      </c>
+      <c r="X37" t="s">
+        <v>355</v>
+      </c>
       <c r="Y37" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="38">
@@ -4078,7 +4785,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4087,38 +4794,34 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="J38" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K38" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L38" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="O38" t="s">
-        <v>124</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
       <c r="Q38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R38" t="n">
         <v>5</v>
       </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>5</v>
@@ -4127,13 +4830,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="X38" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Y38" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39">
@@ -4149,7 +4852,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4158,25 +4861,25 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J39" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K39" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L39" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="O39" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4184,12 +4887,8 @@
       <c r="Q39" t="n">
         <v>5</v>
       </c>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
         <v>5</v>
@@ -4198,13 +4897,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="X39" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Y39" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40">
@@ -4220,7 +4919,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4229,38 +4928,34 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="J40" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K40" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L40" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="O40" t="s">
-        <v>124</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="n">
         <v>5</v>
       </c>
       <c r="R40" t="n">
         <v>5</v>
       </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
         <v>5</v>
@@ -4269,13 +4964,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="X40" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Y40" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41">
@@ -4291,62 +4986,52 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
+        <v>384</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>385</v>
+      </c>
+      <c r="J41" t="s">
+        <v>386</v>
+      </c>
+      <c r="K41" t="s">
+        <v>387</v>
+      </c>
+      <c r="L41" t="s">
+        <v>388</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
         <v>380</v>
-      </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" t="s">
-        <v>381</v>
-      </c>
-      <c r="J41" t="s">
-        <v>382</v>
-      </c>
-      <c r="K41" t="s">
-        <v>383</v>
-      </c>
-      <c r="L41" t="s">
-        <v>384</v>
-      </c>
-      <c r="M41" t="n">
-        <v>5</v>
-      </c>
-      <c r="N41" t="s">
-        <v>360</v>
       </c>
       <c r="O41" t="s">
         <v>53</v>
       </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="X41" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Y41" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42">
@@ -4362,7 +5047,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4371,53 +5056,47 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="J42" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="K42" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="L42" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="O42" t="s">
         <v>53</v>
       </c>
-      <c r="P42" t="n">
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
         <v>4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>4</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="X42" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="Y42" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43">
@@ -4433,7 +5112,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4442,35 +5121,31 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
+        <v>402</v>
+      </c>
+      <c r="J43" t="s">
+        <v>403</v>
+      </c>
+      <c r="K43" t="s">
+        <v>404</v>
+      </c>
+      <c r="L43" t="s">
+        <v>405</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
         <v>397</v>
       </c>
-      <c r="J43" t="s">
-        <v>398</v>
-      </c>
-      <c r="K43" t="s">
-        <v>399</v>
-      </c>
-      <c r="L43" t="s">
-        <v>400</v>
-      </c>
-      <c r="M43" t="n">
-        <v>5</v>
-      </c>
-      <c r="N43" t="s">
-        <v>401</v>
-      </c>
       <c r="O43" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
       </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
       <c r="S43" t="n">
         <v>5</v>
       </c>
@@ -4481,10 +5156,14 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>406</v>
+      </c>
+      <c r="X43" t="s">
+        <v>407</v>
+      </c>
       <c r="Y43" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="44">
@@ -4500,7 +5179,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4509,49 +5188,2124 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="J44" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="K44" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="L44" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="O44" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q44" t="s"/>
       <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>415</v>
+      </c>
+      <c r="X44" t="s">
+        <v>416</v>
+      </c>
       <c r="Y44" t="s">
-        <v>407</v>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>418</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>419</v>
+      </c>
+      <c r="J45" t="s">
+        <v>420</v>
+      </c>
+      <c r="K45" t="s">
+        <v>421</v>
+      </c>
+      <c r="L45" t="s">
+        <v>422</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>423</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>424</v>
+      </c>
+      <c r="X45" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>427</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>428</v>
+      </c>
+      <c r="J46" t="s">
+        <v>429</v>
+      </c>
+      <c r="K46" t="s">
+        <v>430</v>
+      </c>
+      <c r="L46" t="s">
+        <v>431</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>432</v>
+      </c>
+      <c r="O46" t="s">
+        <v>202</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>433</v>
+      </c>
+      <c r="X46" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>436</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>437</v>
+      </c>
+      <c r="J47" t="s">
+        <v>438</v>
+      </c>
+      <c r="K47" t="s">
+        <v>439</v>
+      </c>
+      <c r="L47" t="s">
+        <v>440</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>441</v>
+      </c>
+      <c r="O47" t="s">
+        <v>88</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>442</v>
+      </c>
+      <c r="X47" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>445</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>446</v>
+      </c>
+      <c r="J48" t="s">
+        <v>447</v>
+      </c>
+      <c r="K48" t="s">
+        <v>448</v>
+      </c>
+      <c r="L48" t="s">
+        <v>449</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>450</v>
+      </c>
+      <c r="O48" t="s">
+        <v>88</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>451</v>
+      </c>
+      <c r="X48" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>454</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>455</v>
+      </c>
+      <c r="J49" t="s">
+        <v>456</v>
+      </c>
+      <c r="K49" t="s">
+        <v>457</v>
+      </c>
+      <c r="L49" t="s">
+        <v>458</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>459</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>460</v>
+      </c>
+      <c r="X49" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>463</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>464</v>
+      </c>
+      <c r="J50" t="s">
+        <v>465</v>
+      </c>
+      <c r="K50" t="s">
+        <v>466</v>
+      </c>
+      <c r="L50" t="s">
+        <v>467</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>468</v>
+      </c>
+      <c r="O50" t="s">
+        <v>88</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>469</v>
+      </c>
+      <c r="X50" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>472</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>473</v>
+      </c>
+      <c r="J51" t="s">
+        <v>474</v>
+      </c>
+      <c r="K51" t="s">
+        <v>475</v>
+      </c>
+      <c r="L51" t="s">
+        <v>476</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>459</v>
+      </c>
+      <c r="O51" t="s">
+        <v>88</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>477</v>
+      </c>
+      <c r="X51" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>480</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>481</v>
+      </c>
+      <c r="J52" t="s">
+        <v>482</v>
+      </c>
+      <c r="K52" t="s">
+        <v>483</v>
+      </c>
+      <c r="L52" t="s">
+        <v>484</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>468</v>
+      </c>
+      <c r="O52" t="s">
+        <v>88</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>485</v>
+      </c>
+      <c r="X52" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>488</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>489</v>
+      </c>
+      <c r="J53" t="s">
+        <v>490</v>
+      </c>
+      <c r="K53" t="s">
+        <v>491</v>
+      </c>
+      <c r="L53" t="s">
+        <v>492</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>468</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>493</v>
+      </c>
+      <c r="X53" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>496</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>497</v>
+      </c>
+      <c r="J54" t="s">
+        <v>498</v>
+      </c>
+      <c r="K54" t="s">
+        <v>499</v>
+      </c>
+      <c r="L54" t="s">
+        <v>500</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>468</v>
+      </c>
+      <c r="O54" t="s">
+        <v>88</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>501</v>
+      </c>
+      <c r="X54" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>504</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>505</v>
+      </c>
+      <c r="J55" t="s">
+        <v>506</v>
+      </c>
+      <c r="K55" t="s">
+        <v>507</v>
+      </c>
+      <c r="L55" t="s">
+        <v>508</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>509</v>
+      </c>
+      <c r="X55" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>512</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>513</v>
+      </c>
+      <c r="J56" t="s">
+        <v>514</v>
+      </c>
+      <c r="K56" t="s">
+        <v>515</v>
+      </c>
+      <c r="L56" t="s">
+        <v>516</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>517</v>
+      </c>
+      <c r="O56" t="s">
+        <v>88</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>518</v>
+      </c>
+      <c r="X56" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>521</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>522</v>
+      </c>
+      <c r="J57" t="s">
+        <v>523</v>
+      </c>
+      <c r="K57" t="s">
+        <v>524</v>
+      </c>
+      <c r="L57" t="s">
+        <v>525</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>517</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>518</v>
+      </c>
+      <c r="X57" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>527</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>528</v>
+      </c>
+      <c r="J58" t="s">
+        <v>529</v>
+      </c>
+      <c r="K58" t="s">
+        <v>530</v>
+      </c>
+      <c r="L58" t="s">
+        <v>531</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>532</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>533</v>
+      </c>
+      <c r="J59" t="s">
+        <v>534</v>
+      </c>
+      <c r="K59" t="s">
+        <v>535</v>
+      </c>
+      <c r="L59" t="s">
+        <v>536</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>537</v>
+      </c>
+      <c r="O59" t="s">
+        <v>202</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>538</v>
+      </c>
+      <c r="X59" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>541</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>542</v>
+      </c>
+      <c r="J60" t="s">
+        <v>543</v>
+      </c>
+      <c r="K60" t="s">
+        <v>544</v>
+      </c>
+      <c r="L60" t="s">
+        <v>545</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>546</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>547</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>548</v>
+      </c>
+      <c r="J61" t="s">
+        <v>549</v>
+      </c>
+      <c r="K61" t="s">
+        <v>550</v>
+      </c>
+      <c r="L61" t="s">
+        <v>551</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>546</v>
+      </c>
+      <c r="O61" t="s">
+        <v>88</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>552</v>
+      </c>
+      <c r="X61" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>555</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>556</v>
+      </c>
+      <c r="J62" t="s">
+        <v>557</v>
+      </c>
+      <c r="K62" t="s">
+        <v>558</v>
+      </c>
+      <c r="L62" t="s">
+        <v>559</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>560</v>
+      </c>
+      <c r="O62" t="s">
+        <v>88</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>562</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>563</v>
+      </c>
+      <c r="J63" t="s">
+        <v>564</v>
+      </c>
+      <c r="K63" t="s">
+        <v>565</v>
+      </c>
+      <c r="L63" t="s">
+        <v>566</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>537</v>
+      </c>
+      <c r="O63" t="s">
+        <v>78</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>567</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>568</v>
+      </c>
+      <c r="J64" t="s">
+        <v>569</v>
+      </c>
+      <c r="K64" t="s">
+        <v>570</v>
+      </c>
+      <c r="L64" t="s">
+        <v>571</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>572</v>
+      </c>
+      <c r="O64" t="s">
+        <v>78</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>574</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>575</v>
+      </c>
+      <c r="J65" t="s">
+        <v>576</v>
+      </c>
+      <c r="K65" t="s">
+        <v>577</v>
+      </c>
+      <c r="L65" t="s">
+        <v>578</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>579</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>580</v>
+      </c>
+      <c r="X65" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>583</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>584</v>
+      </c>
+      <c r="J66" t="s">
+        <v>585</v>
+      </c>
+      <c r="K66" t="s">
+        <v>586</v>
+      </c>
+      <c r="L66" t="s">
+        <v>587</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>579</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>588</v>
+      </c>
+      <c r="X66" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>591</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>592</v>
+      </c>
+      <c r="J67" t="s">
+        <v>593</v>
+      </c>
+      <c r="K67" t="s">
+        <v>594</v>
+      </c>
+      <c r="L67" t="s">
+        <v>595</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>579</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>596</v>
+      </c>
+      <c r="X67" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>599</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>600</v>
+      </c>
+      <c r="J68" t="s">
+        <v>601</v>
+      </c>
+      <c r="K68" t="s">
+        <v>209</v>
+      </c>
+      <c r="L68" t="s">
+        <v>602</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>579</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>596</v>
+      </c>
+      <c r="X68" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>604</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>605</v>
+      </c>
+      <c r="J69" t="s">
+        <v>606</v>
+      </c>
+      <c r="K69" t="s">
+        <v>607</v>
+      </c>
+      <c r="L69" t="s">
+        <v>608</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>609</v>
+      </c>
+      <c r="X69" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>612</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>613</v>
+      </c>
+      <c r="J70" t="s">
+        <v>614</v>
+      </c>
+      <c r="K70" t="s">
+        <v>615</v>
+      </c>
+      <c r="L70" t="s">
+        <v>616</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>579</v>
+      </c>
+      <c r="O70" t="s">
+        <v>78</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>617</v>
+      </c>
+      <c r="X70" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>620</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>621</v>
+      </c>
+      <c r="J71" t="s">
+        <v>622</v>
+      </c>
+      <c r="K71" t="s">
+        <v>623</v>
+      </c>
+      <c r="L71" t="s">
+        <v>624</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>579</v>
+      </c>
+      <c r="O71" t="s">
+        <v>78</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>625</v>
+      </c>
+      <c r="X71" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>628</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>629</v>
+      </c>
+      <c r="J72" t="s">
+        <v>630</v>
+      </c>
+      <c r="K72" t="s">
+        <v>631</v>
+      </c>
+      <c r="L72" t="s">
+        <v>632</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>633</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>635</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>636</v>
+      </c>
+      <c r="J73" t="s">
+        <v>637</v>
+      </c>
+      <c r="K73" t="s">
+        <v>638</v>
+      </c>
+      <c r="L73" t="s">
+        <v>639</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>640</v>
+      </c>
+      <c r="O73" t="s">
+        <v>88</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>642</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>643</v>
+      </c>
+      <c r="J74" t="s">
+        <v>644</v>
+      </c>
+      <c r="K74" t="s">
+        <v>645</v>
+      </c>
+      <c r="L74" t="s">
+        <v>646</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>640</v>
+      </c>
+      <c r="O74" t="s">
+        <v>88</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>40029</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>648</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>649</v>
+      </c>
+      <c r="J75" t="s">
+        <v>650</v>
+      </c>
+      <c r="K75" t="s">
+        <v>651</v>
+      </c>
+      <c r="L75" t="s">
+        <v>652</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>653</v>
+      </c>
+      <c r="O75" t="s">
+        <v>88</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>652</v>
       </c>
     </row>
   </sheetData>
